--- a/EXCEL/calendar_template.xlsx
+++ b/EXCEL/calendar_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meihua/Documents/MyHomePage/arielmei.github.io/EXCEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294C6123-1461-4A44-B429-498968422D55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A64DFC9-C7A0-2D4D-92BD-B71AFE09780C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{E51E746B-EB8E-4359-BCF6-BF7EE969A1D6}"/>
   </bookViews>
@@ -803,16 +803,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -824,22 +833,13 @@
     <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1348,7 +1348,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="15" fmlaLink="$A$3" max="9999" min="1900" page="10" val="2019"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="15" fmlaLink="$A$3" max="9999" min="1900" page="10" val="2020"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1824,8 +1824,8 @@
   <dimension ref="A1:AQ1348"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI29" sqref="AI29"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AI33" sqref="AI33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14"/>
@@ -1851,30 +1851,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="31.5" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
       <c r="AN1" s="1"/>
       <c r="AO1" s="43"/>
     </row>
     <row r="2" spans="1:43" ht="11.25" customHeight="1">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="3" spans="1:43" ht="24" customHeight="1">
       <c r="A3" s="44">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1918,42 +1918,42 @@
       <c r="AO3" s="42"/>
     </row>
     <row r="4" spans="1:43" ht="18.75" customHeight="1">
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="K4" s="63" t="s">
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="K4" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="S4" s="63" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="S4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="AA4" s="63" t="s">
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="AA4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="63"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="68"/>
+      <c r="AG4" s="68"/>
       <c r="AI4" s="48" t="s">
         <v>5</v>
       </c>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="AK5" s="25">
         <f>DATE(A3,1,1)</f>
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="AL5" s="46" t="s">
         <v>65</v>
@@ -2085,83 +2085,83 @@
         <f t="array" ref="D6">IF(AND(YEAR(JanSun1+1)=$A$3,MONTH(JanSun1+1)=1),JanSun1+1, "")</f>
         <v/>
       </c>
-      <c r="E6" s="6" cm="1">
+      <c r="E6" s="6" t="str" cm="1">
         <f t="array" ref="E6">IF(AND(YEAR(JanSun1+2)=$A$3,MONTH(JanSun1+2)=1),JanSun1+2, "")</f>
-        <v>43466</v>
+        <v/>
       </c>
       <c r="F6" s="6" cm="1">
         <f t="array" ref="F6">IF(AND(YEAR(JanSun1+3)=$A$3,MONTH(JanSun1+3)=1),JanSun1+3, "")</f>
-        <v>43467</v>
+        <v>43831</v>
       </c>
       <c r="G6" s="6">
         <f>IF(AND(YEAR(JanSun1+4)=$A$3,MONTH(JanSun1+4)=1),JanSun1+4, "")</f>
-        <v>43468</v>
+        <v>43832</v>
       </c>
       <c r="H6" s="7">
         <f>IF(AND(YEAR(JanSun1+5)=$A$3,MONTH(JanSun1+5)=1),JanSun1+5, "")</f>
-        <v>43469</v>
+        <v>43833</v>
       </c>
       <c r="I6" s="6">
         <f>IF(AND(YEAR(JanSun1+6)=$A$3,MONTH(JanSun1+6)=1),JanSun1+6, "")</f>
-        <v>43470</v>
+        <v>43834</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="6" t="str">
         <f>IF(AND(YEAR(AprSun1)=$A$3,MONTH(AprSun1)=4),AprSun1, "")</f>
         <v/>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="6" t="str">
         <f>IF(AND(YEAR(AprSun1+1)=$A$3,MONTH(AprSun1+1)=4),AprSun1+1, "")</f>
-        <v>43556</v>
-      </c>
-      <c r="M6" s="6">
+        <v/>
+      </c>
+      <c r="M6" s="6" t="str">
         <f>IF(AND(YEAR(AprSun1+2)=$A$3,MONTH(AprSun1+2)=4),AprSun1+2, "")</f>
-        <v>43557</v>
+        <v/>
       </c>
       <c r="N6" s="6">
         <f>IF(AND(YEAR(AprSun1+3)=$A$3,MONTH(AprSun1+3)=4),AprSun1+3, "")</f>
-        <v>43558</v>
+        <v>43922</v>
       </c>
       <c r="O6" s="6">
         <f>IF(AND(YEAR(AprSun1+4)=$A$3,MONTH(AprSun1+4)=4),AprSun1+4, "")</f>
-        <v>43559</v>
+        <v>43923</v>
       </c>
       <c r="P6" s="7">
         <f>IF(AND(YEAR(AprSun1+5)=$A$3,MONTH(AprSun1+5)=4),AprSun1+5, "")</f>
-        <v>43560</v>
+        <v>43924</v>
       </c>
       <c r="Q6" s="6">
         <f>IF(AND(YEAR(AprSun1+6)=$A$3,MONTH(AprSun1+6)=4),AprSun1+6, "")</f>
-        <v>43561</v>
+        <v>43925</v>
       </c>
       <c r="R6" s="5"/>
       <c r="S6" s="6" t="str">
         <f>IF(AND(YEAR(JulSun1)=$A$3,MONTH(JulSun1)=7),JulSun1, "")</f>
         <v/>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="6" t="str">
         <f>IF(AND(YEAR(JulSun1+1)=$A$3,MONTH(JulSun1+1)=7),JulSun1+1, "")</f>
-        <v>43647</v>
-      </c>
-      <c r="U6" s="6">
+        <v/>
+      </c>
+      <c r="U6" s="6" t="str">
         <f>IF(AND(YEAR(JulSun1+2)=$A$3,MONTH(JulSun1+2)=7),JulSun1+2, "")</f>
-        <v>43648</v>
+        <v/>
       </c>
       <c r="V6" s="6">
         <f>IF(AND(YEAR(JulSun1+3)=$A$3,MONTH(JulSun1+3)=7),JulSun1+3, "")</f>
-        <v>43649</v>
+        <v>44013</v>
       </c>
       <c r="W6" s="6">
         <f>IF(AND(YEAR(JulSun1+4)=$A$3,MONTH(JulSun1+4)=7),JulSun1+4, "")</f>
-        <v>43650</v>
+        <v>44014</v>
       </c>
       <c r="X6" s="7">
         <f>IF(AND(YEAR(JulSun1+5)=$A$3,MONTH(JulSun1+5)=7),JulSun1+5, "")</f>
-        <v>43651</v>
+        <v>44015</v>
       </c>
       <c r="Y6" s="6">
         <f>IF(AND(YEAR(JulSun1+6)=$A$3,MONTH(JulSun1+6)=7),JulSun1+6, "")</f>
-        <v>43652</v>
+        <v>44016</v>
       </c>
       <c r="Z6" s="5"/>
       <c r="AA6" s="6" t="str">
@@ -2172,25 +2172,25 @@
         <f>IF(AND(YEAR(OctSun1+1)=$A$3,MONTH(OctSun1+1)=10),OctSun1+1, "")</f>
         <v/>
       </c>
-      <c r="AC6" s="6">
+      <c r="AC6" s="6" t="str">
         <f>IF(AND(YEAR(OctSun1+2)=$A$3,MONTH(OctSun1+2)=10),OctSun1+2, "")</f>
-        <v>43739</v>
-      </c>
-      <c r="AD6" s="6">
+        <v/>
+      </c>
+      <c r="AD6" s="6" t="str">
         <f>IF(AND(YEAR(OctSun1+3)=$A$3,MONTH(OctSun1+3)=10),OctSun1+3, "")</f>
-        <v>43740</v>
+        <v/>
       </c>
       <c r="AE6" s="6">
         <f>IF(AND(YEAR(OctSun1+4)=$A$3,MONTH(OctSun1+4)=10),OctSun1+4, "")</f>
-        <v>43741</v>
+        <v>44105</v>
       </c>
       <c r="AF6" s="7">
         <f>IF(AND(YEAR(OctSun1+5)=$A$3,MONTH(OctSun1+5)=10),OctSun1+5, "")</f>
-        <v>43742</v>
+        <v>44106</v>
       </c>
       <c r="AG6" s="6">
         <f>IF(AND(YEAR(OctSun1+6)=$A$3,MONTH(OctSun1+6)=10),OctSun1+6, "")</f>
-        <v>43743</v>
+        <v>44107</v>
       </c>
       <c r="AI6" s="45" t="s">
         <v>15</v>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="AK6" s="25">
         <f>DATE(A3,1,1)+14+CHOOSE(WEEKDAY(DATE(A3,1,1)),1,0,6,5,4,3,2)</f>
-        <v>43486</v>
+        <v>43850</v>
       </c>
       <c r="AL6" s="47" t="s">
         <v>66</v>
@@ -2215,118 +2215,118 @@
       <c r="B7" s="5"/>
       <c r="C7" s="6">
         <f>IF(AND(YEAR(JanSun1+7)=$A$3,MONTH(JanSun1+7)=1),JanSun1+7, "")</f>
-        <v>43471</v>
+        <v>43835</v>
       </c>
       <c r="D7" s="6">
         <f>IF(AND(YEAR(JanSun1+8)=$A$3,MONTH(JanSun1+8)=1),JanSun1+8, "")</f>
-        <v>43472</v>
+        <v>43836</v>
       </c>
       <c r="E7" s="6">
         <f>IF(AND(YEAR(JanSun1+9)=$A$3,MONTH(JanSun1+9)=1),JanSun1+9, "")</f>
-        <v>43473</v>
+        <v>43837</v>
       </c>
       <c r="F7" s="6">
         <f>IF(AND(YEAR(JanSun1+10)=$A$3,MONTH(JanSun1+10)=1),JanSun1+10, "")</f>
-        <v>43474</v>
+        <v>43838</v>
       </c>
       <c r="G7" s="6">
         <f>IF(AND(YEAR(JanSun1+11)=$A$3,MONTH(JanSun1+11)=1),JanSun1+11, "")</f>
-        <v>43475</v>
+        <v>43839</v>
       </c>
       <c r="H7" s="7">
         <f>IF(AND(YEAR(JanSun1+12)=$A$3,MONTH(JanSun1+12)=1),JanSun1+12, "")</f>
-        <v>43476</v>
+        <v>43840</v>
       </c>
       <c r="I7" s="6">
         <f>IF(AND(YEAR(JanSun1+13)=$A$3,MONTH(JanSun1+13)=1),JanSun1+13, "")</f>
-        <v>43477</v>
+        <v>43841</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="8">
         <f>IF(AND(YEAR(AprSun1+7)=$A$3,MONTH(AprSun1+7)=4),AprSun1+7, "")</f>
-        <v>43562</v>
+        <v>43926</v>
       </c>
       <c r="L7" s="6">
         <f>IF(AND(YEAR(AprSun1+8)=$A$3,MONTH(AprSun1+8)=4),AprSun1+8, "")</f>
-        <v>43563</v>
+        <v>43927</v>
       </c>
       <c r="M7" s="6">
         <f>IF(AND(YEAR(AprSun1+9)=$A$3,MONTH(AprSun1+9)=4),AprSun1+9, "")</f>
-        <v>43564</v>
+        <v>43928</v>
       </c>
       <c r="N7" s="6">
         <f>IF(AND(YEAR(AprSun1+10)=$A$3,MONTH(AprSun1+10)=4),AprSun1+10, "")</f>
-        <v>43565</v>
+        <v>43929</v>
       </c>
       <c r="O7" s="6">
         <f>IF(AND(YEAR(AprSun1+11)=$A$3,MONTH(AprSun1+11)=4),AprSun1+11, "")</f>
-        <v>43566</v>
+        <v>43930</v>
       </c>
       <c r="P7" s="7">
         <f>IF(AND(YEAR(AprSun1+12)=$A$3,MONTH(AprSun1+12)=4),AprSun1+12, "")</f>
-        <v>43567</v>
+        <v>43931</v>
       </c>
       <c r="Q7" s="6">
         <f>IF(AND(YEAR(AprSun1+13)=$A$3,MONTH(AprSun1+13)=4),AprSun1+13, "")</f>
-        <v>43568</v>
+        <v>43932</v>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="6">
         <f>IF(AND(YEAR(JulSun1+7)=$A$3,MONTH(JulSun1+7)=7),JulSun1+7, "")</f>
-        <v>43653</v>
+        <v>44017</v>
       </c>
       <c r="T7" s="6">
         <f>IF(AND(YEAR(JulSun1+8)=$A$3,MONTH(JulSun1+8)=7),JulSun1+8, "")</f>
-        <v>43654</v>
+        <v>44018</v>
       </c>
       <c r="U7" s="6">
         <f>IF(AND(YEAR(JulSun1+9)=$A$3,MONTH(JulSun1+9)=7),JulSun1+9, "")</f>
-        <v>43655</v>
+        <v>44019</v>
       </c>
       <c r="V7" s="6">
         <f>IF(AND(YEAR(JulSun1+10)=$A$3,MONTH(JulSun1+10)=7),JulSun1+10, "")</f>
-        <v>43656</v>
+        <v>44020</v>
       </c>
       <c r="W7" s="6">
         <f>IF(AND(YEAR(JulSun1+11)=$A$3,MONTH(JulSun1+11)=7),JulSun1+11, "")</f>
-        <v>43657</v>
+        <v>44021</v>
       </c>
       <c r="X7" s="7">
         <f>IF(AND(YEAR(JulSun1+12)=$A$3,MONTH(JulSun1+12)=7),JulSun1+12, "")</f>
-        <v>43658</v>
+        <v>44022</v>
       </c>
       <c r="Y7" s="6">
         <f>IF(AND(YEAR(JulSun1+13)=$A$3,MONTH(JulSun1+13)=7),JulSun1+13, "")</f>
-        <v>43659</v>
+        <v>44023</v>
       </c>
       <c r="Z7" s="5"/>
       <c r="AA7" s="6">
         <f>IF(AND(YEAR(OctSun1+7)=$A$3,MONTH(OctSun1+7)=10),OctSun1+7, "")</f>
-        <v>43744</v>
+        <v>44108</v>
       </c>
       <c r="AB7" s="6">
         <f>IF(AND(YEAR(OctSun1+8)=$A$3,MONTH(OctSun1+8)=10),OctSun1+8, "")</f>
-        <v>43745</v>
+        <v>44109</v>
       </c>
       <c r="AC7" s="6">
         <f>IF(AND(YEAR(OctSun1+9)=$A$3,MONTH(OctSun1+9)=10),OctSun1+9, "")</f>
-        <v>43746</v>
+        <v>44110</v>
       </c>
       <c r="AD7" s="6">
         <f>IF(AND(YEAR(OctSun1+10)=$A$3,MONTH(OctSun1+10)=10),OctSun1+10, "")</f>
-        <v>43747</v>
+        <v>44111</v>
       </c>
       <c r="AE7" s="6">
         <f>IF(AND(YEAR(OctSun1+11)=$A$3,MONTH(OctSun1+11)=10),OctSun1+11, "")</f>
-        <v>43748</v>
+        <v>44112</v>
       </c>
       <c r="AF7" s="7">
         <f>IF(AND(YEAR(OctSun1+12)=$A$3,MONTH(OctSun1+12)=10),OctSun1+12, "")</f>
-        <v>43749</v>
+        <v>44113</v>
       </c>
       <c r="AG7" s="6">
         <f>IF(AND(YEAR(OctSun1+13)=$A$3,MONTH(OctSun1+13)=10),OctSun1+13, "")</f>
-        <v>43750</v>
+        <v>44114</v>
       </c>
       <c r="AI7" s="45" t="s">
         <v>17</v>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="AK7" s="26">
         <f>DATE(A3,2,1)+14+CHOOSE(WEEKDAY(DATE(A3,2,1)),1,0,6,5,4,3,2)</f>
-        <v>43514</v>
+        <v>43878</v>
       </c>
       <c r="AL7" s="47" t="s">
         <v>66</v>
@@ -2351,118 +2351,118 @@
       <c r="B8" s="5"/>
       <c r="C8" s="6">
         <f>IF(AND(YEAR(JanSun1+14)=$A$3,MONTH(JanSun1+14)=1),JanSun1+14, "")</f>
-        <v>43478</v>
+        <v>43842</v>
       </c>
       <c r="D8" s="6">
         <f>IF(AND(YEAR(JanSun1+15)=$A$3,MONTH(JanSun1+15)=1),JanSun1+15, "")</f>
-        <v>43479</v>
+        <v>43843</v>
       </c>
       <c r="E8" s="6">
         <f>IF(AND(YEAR(JanSun1+16)=$A$3,MONTH(JanSun1+16)=1),JanSun1+16, "")</f>
-        <v>43480</v>
+        <v>43844</v>
       </c>
       <c r="F8" s="6">
         <f>IF(AND(YEAR(JanSun1+17)=$A$3,MONTH(JanSun1+17)=1),JanSun1+17, "")</f>
-        <v>43481</v>
+        <v>43845</v>
       </c>
       <c r="G8" s="6">
         <f>IF(AND(YEAR(JanSun1+18)=$A$3,MONTH(JanSun1+18)=1),JanSun1+18, "")</f>
-        <v>43482</v>
+        <v>43846</v>
       </c>
       <c r="H8" s="7">
         <f>IF(AND(YEAR(JanSun1+19)=$A$3,MONTH(JanSun1+19)=1),JanSun1+19, "")</f>
-        <v>43483</v>
+        <v>43847</v>
       </c>
       <c r="I8" s="6">
         <f>IF(AND(YEAR(JanSun1+20)=$A$3,MONTH(JanSun1+20)=1),JanSun1+20, "")</f>
-        <v>43484</v>
+        <v>43848</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="6">
         <f>IF(AND(YEAR(AprSun1+14)=$A$3,MONTH(AprSun1+14)=4),AprSun1+14, "")</f>
-        <v>43569</v>
+        <v>43933</v>
       </c>
       <c r="L8" s="6">
         <f>IF(AND(YEAR(AprSun1+15)=$A$3,MONTH(AprSun1+15)=4),AprSun1+15, "")</f>
-        <v>43570</v>
+        <v>43934</v>
       </c>
       <c r="M8" s="6">
         <f>IF(AND(YEAR(AprSun1+16)=$A$3,MONTH(AprSun1+16)=4),AprSun1+16, "")</f>
-        <v>43571</v>
+        <v>43935</v>
       </c>
       <c r="N8" s="6">
         <f>IF(AND(YEAR(AprSun1+17)=$A$3,MONTH(AprSun1+17)=4),AprSun1+17, "")</f>
-        <v>43572</v>
+        <v>43936</v>
       </c>
       <c r="O8" s="6">
         <f>IF(AND(YEAR(AprSun1+18)=$A$3,MONTH(AprSun1+18)=4),AprSun1+18, "")</f>
-        <v>43573</v>
+        <v>43937</v>
       </c>
       <c r="P8" s="7">
         <f>IF(AND(YEAR(AprSun1+19)=$A$3,MONTH(AprSun1+19)=4),AprSun1+19, "")</f>
-        <v>43574</v>
+        <v>43938</v>
       </c>
       <c r="Q8" s="6">
         <f>IF(AND(YEAR(AprSun1+20)=$A$3,MONTH(AprSun1+20)=4),AprSun1+20, "")</f>
-        <v>43575</v>
+        <v>43939</v>
       </c>
       <c r="R8" s="5"/>
       <c r="S8" s="6">
         <f>IF(AND(YEAR(JulSun1+14)=$A$3,MONTH(JulSun1+14)=7),JulSun1+14, "")</f>
-        <v>43660</v>
+        <v>44024</v>
       </c>
       <c r="T8" s="6">
         <f>IF(AND(YEAR(JulSun1+15)=$A$3,MONTH(JulSun1+15)=7),JulSun1+15, "")</f>
-        <v>43661</v>
+        <v>44025</v>
       </c>
       <c r="U8" s="6">
         <f>IF(AND(YEAR(JulSun1+16)=$A$3,MONTH(JulSun1+16)=7),JulSun1+16, "")</f>
-        <v>43662</v>
+        <v>44026</v>
       </c>
       <c r="V8" s="6">
         <f>IF(AND(YEAR(JulSun1+17)=$A$3,MONTH(JulSun1+17)=7),JulSun1+17, "")</f>
-        <v>43663</v>
+        <v>44027</v>
       </c>
       <c r="W8" s="6">
         <f>IF(AND(YEAR(JulSun1+18)=$A$3,MONTH(JulSun1+18)=7),JulSun1+18, "")</f>
-        <v>43664</v>
+        <v>44028</v>
       </c>
       <c r="X8" s="7">
         <f>IF(AND(YEAR(JulSun1+19)=$A$3,MONTH(JulSun1+19)=7),JulSun1+19, "")</f>
-        <v>43665</v>
+        <v>44029</v>
       </c>
       <c r="Y8" s="6">
         <f>IF(AND(YEAR(JulSun1+20)=$A$3,MONTH(JulSun1+20)=7),JulSun1+20, "")</f>
-        <v>43666</v>
+        <v>44030</v>
       </c>
       <c r="Z8" s="5"/>
       <c r="AA8" s="6">
         <f>IF(AND(YEAR(OctSun1+14)=$A$3,MONTH(OctSun1+14)=10),OctSun1+14, "")</f>
-        <v>43751</v>
+        <v>44115</v>
       </c>
       <c r="AB8" s="6">
         <f>IF(AND(YEAR(OctSun1+15)=$A$3,MONTH(OctSun1+15)=10),OctSun1+15, "")</f>
-        <v>43752</v>
+        <v>44116</v>
       </c>
       <c r="AC8" s="6">
         <f>IF(AND(YEAR(OctSun1+16)=$A$3,MONTH(OctSun1+16)=10),OctSun1+16, "")</f>
-        <v>43753</v>
+        <v>44117</v>
       </c>
       <c r="AD8" s="6">
         <f>IF(AND(YEAR(OctSun1+17)=$A$3,MONTH(OctSun1+17)=10),OctSun1+17, "")</f>
-        <v>43754</v>
+        <v>44118</v>
       </c>
       <c r="AE8" s="6">
         <f>IF(AND(YEAR(OctSun1+18)=$A$3,MONTH(OctSun1+18)=10),OctSun1+18, "")</f>
-        <v>43755</v>
+        <v>44119</v>
       </c>
       <c r="AF8" s="7">
         <f>IF(AND(YEAR(OctSun1+19)=$A$3,MONTH(OctSun1+19)=10),OctSun1+19, "")</f>
-        <v>43756</v>
+        <v>44120</v>
       </c>
       <c r="AG8" s="6">
         <f>IF(AND(YEAR(OctSun1+20)=$A$3,MONTH(OctSun1+20)=10),OctSun1+20, "")</f>
-        <v>43757</v>
+        <v>44121</v>
       </c>
       <c r="AI8" s="45" t="s">
         <v>49</v>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="AK8" s="25">
         <f>FLOOR(DATE(A3,5,DAY(MINUTE(A3/38)/2+56)),7)-34</f>
-        <v>43576</v>
+        <v>43933</v>
       </c>
       <c r="AL8" s="47" t="s">
         <v>66</v>
@@ -2487,118 +2487,118 @@
       <c r="B9" s="5"/>
       <c r="C9" s="6">
         <f>IF(AND(YEAR(JanSun1+21)=$A$3,MONTH(JanSun1+21)=1),JanSun1+21, "")</f>
-        <v>43485</v>
+        <v>43849</v>
       </c>
       <c r="D9" s="6">
         <f>IF(AND(YEAR(JanSun1+22)=$A$3,MONTH(JanSun1+22)=1),JanSun1+22, "")</f>
-        <v>43486</v>
+        <v>43850</v>
       </c>
       <c r="E9" s="6">
         <f>IF(AND(YEAR(JanSun1+23)=$A$3,MONTH(JanSun1+23)=1),JanSun1+23, "")</f>
-        <v>43487</v>
+        <v>43851</v>
       </c>
       <c r="F9" s="6">
         <f>IF(AND(YEAR(JanSun1+24)=$A$3,MONTH(JanSun1+24)=1),JanSun1+24, "")</f>
-        <v>43488</v>
+        <v>43852</v>
       </c>
       <c r="G9" s="6">
         <f>IF(AND(YEAR(JanSun1+25)=$A$3,MONTH(JanSun1+25)=1),JanSun1+25, "")</f>
-        <v>43489</v>
+        <v>43853</v>
       </c>
       <c r="H9" s="7">
         <f>IF(AND(YEAR(JanSun1+26)=$A$3,MONTH(JanSun1+26)=1),JanSun1+26, "")</f>
-        <v>43490</v>
+        <v>43854</v>
       </c>
       <c r="I9" s="6">
         <f>IF(AND(YEAR(JanSun1+27)=$A$3,MONTH(JanSun1+27)=1),JanSun1+27, "")</f>
-        <v>43491</v>
+        <v>43855</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="6">
         <f>IF(AND(YEAR(AprSun1+21)=$A$3,MONTH(AprSun1+21)=4),AprSun1+21, "")</f>
-        <v>43576</v>
+        <v>43940</v>
       </c>
       <c r="L9" s="6">
         <f>IF(AND(YEAR(AprSun1+22)=$A$3,MONTH(AprSun1+22)=4),AprSun1+22, "")</f>
-        <v>43577</v>
+        <v>43941</v>
       </c>
       <c r="M9" s="6">
         <f>IF(AND(YEAR(AprSun1+23)=$A$3,MONTH(AprSun1+23)=4),AprSun1+23, "")</f>
-        <v>43578</v>
+        <v>43942</v>
       </c>
       <c r="N9" s="6">
         <f>IF(AND(YEAR(AprSun1+24)=$A$3,MONTH(AprSun1+24)=4),AprSun1+24, "")</f>
-        <v>43579</v>
+        <v>43943</v>
       </c>
       <c r="O9" s="6">
         <f>IF(AND(YEAR(AprSun1+25)=$A$3,MONTH(AprSun1+25)=4),AprSun1+25, "")</f>
-        <v>43580</v>
+        <v>43944</v>
       </c>
       <c r="P9" s="7">
         <f>IF(AND(YEAR(AprSun1+26)=$A$3,MONTH(AprSun1+26)=4),AprSun1+26, "")</f>
-        <v>43581</v>
+        <v>43945</v>
       </c>
       <c r="Q9" s="6">
         <f>IF(AND(YEAR(AprSun1+27)=$A$3,MONTH(AprSun1+27)=4),AprSun1+27, "")</f>
-        <v>43582</v>
+        <v>43946</v>
       </c>
       <c r="R9" s="5"/>
       <c r="S9" s="6">
         <f>IF(AND(YEAR(JulSun1+21)=$A$3,MONTH(JulSun1+21)=7),JulSun1+21, "")</f>
-        <v>43667</v>
+        <v>44031</v>
       </c>
       <c r="T9" s="6">
         <f>IF(AND(YEAR(JulSun1+22)=$A$3,MONTH(JulSun1+22)=7),JulSun1+22, "")</f>
-        <v>43668</v>
+        <v>44032</v>
       </c>
       <c r="U9" s="6">
         <f>IF(AND(YEAR(JulSun1+23)=$A$3,MONTH(JulSun1+23)=7),JulSun1+23, "")</f>
-        <v>43669</v>
+        <v>44033</v>
       </c>
       <c r="V9" s="6">
         <f>IF(AND(YEAR(JulSun1+24)=$A$3,MONTH(JulSun1+24)=7),JulSun1+24, "")</f>
-        <v>43670</v>
+        <v>44034</v>
       </c>
       <c r="W9" s="6">
         <f>IF(AND(YEAR(JulSun1+25)=$A$3,MONTH(JulSun1+25)=7),JulSun1+25, "")</f>
-        <v>43671</v>
+        <v>44035</v>
       </c>
       <c r="X9" s="7">
         <f>IF(AND(YEAR(JulSun1+26)=$A$3,MONTH(JulSun1+26)=7),JulSun1+26, "")</f>
-        <v>43672</v>
+        <v>44036</v>
       </c>
       <c r="Y9" s="6">
         <f>IF(AND(YEAR(JulSun1+27)=$A$3,MONTH(JulSun1+27)=7),JulSun1+27, "")</f>
-        <v>43673</v>
+        <v>44037</v>
       </c>
       <c r="Z9" s="5"/>
       <c r="AA9" s="6">
         <f>IF(AND(YEAR(OctSun1+21)=$A$3,MONTH(OctSun1+21)=10),OctSun1+21, "")</f>
-        <v>43758</v>
+        <v>44122</v>
       </c>
       <c r="AB9" s="6">
         <f>IF(AND(YEAR(OctSun1+22)=$A$3,MONTH(OctSun1+22)=10),OctSun1+22, "")</f>
-        <v>43759</v>
+        <v>44123</v>
       </c>
       <c r="AC9" s="6">
         <f>IF(AND(YEAR(OctSun1+23)=$A$3,MONTH(OctSun1+23)=10),OctSun1+23, "")</f>
-        <v>43760</v>
+        <v>44124</v>
       </c>
       <c r="AD9" s="6">
         <f>IF(AND(YEAR(OctSun1+24)=$A$3,MONTH(OctSun1+24)=10),OctSun1+24, "")</f>
-        <v>43761</v>
+        <v>44125</v>
       </c>
       <c r="AE9" s="6">
         <f>IF(AND(YEAR(OctSun1+25)=$A$3,MONTH(OctSun1+25)=10),OctSun1+25, "")</f>
-        <v>43762</v>
+        <v>44126</v>
       </c>
       <c r="AF9" s="7">
         <f>IF(AND(YEAR(OctSun1+26)=$A$3,MONTH(OctSun1+26)=10),OctSun1+26, "")</f>
-        <v>43763</v>
+        <v>44127</v>
       </c>
       <c r="AG9" s="6">
         <f>IF(AND(YEAR(OctSun1+27)=$A$3,MONTH(OctSun1+27)=10),OctSun1+27, "")</f>
-        <v>43764</v>
+        <v>44128</v>
       </c>
       <c r="AI9" s="45" t="s">
         <v>52</v>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="AK9" s="26">
         <f>DATE(A3,5,1)+7+CHOOSE(WEEKDAY(DATE(A3,5,1)),0,6,5,4,3,2,1)</f>
-        <v>43597</v>
+        <v>43961</v>
       </c>
       <c r="AL9" s="47" t="s">
         <v>66</v>
@@ -2623,27 +2623,27 @@
       <c r="B10" s="5"/>
       <c r="C10" s="6">
         <f>IF(AND(YEAR(JanSun1+28)=$A$3,MONTH(JanSun1+28)=1),JanSun1+28, "")</f>
-        <v>43492</v>
+        <v>43856</v>
       </c>
       <c r="D10" s="6">
         <f>IF(AND(YEAR(JanSun1+29)=$A$3,MONTH(JanSun1+29)=1),JanSun1+29, "")</f>
-        <v>43493</v>
+        <v>43857</v>
       </c>
       <c r="E10" s="6">
         <f>IF(AND(YEAR(JanSun1+30)=$A$3,MONTH(JanSun1+30)=1),JanSun1+30, "")</f>
-        <v>43494</v>
+        <v>43858</v>
       </c>
       <c r="F10" s="6">
         <f>IF(AND(YEAR(JanSun1+31)=$A$3,MONTH(JanSun1+31)=1),JanSun1+31, "")</f>
-        <v>43495</v>
+        <v>43859</v>
       </c>
       <c r="G10" s="6">
         <f>IF(AND(YEAR(JanSun1+32)=$A$3,MONTH(JanSun1+32)=1),JanSun1+32, "")</f>
-        <v>43496</v>
-      </c>
-      <c r="H10" s="7" t="str">
+        <v>43860</v>
+      </c>
+      <c r="H10" s="7">
         <f>IF(AND(YEAR(JanSun1+33)=$A$3,MONTH(JanSun1+33)=1),JanSun1+33, "")</f>
-        <v/>
+        <v>43861</v>
       </c>
       <c r="I10" s="6" t="str">
         <f>IF(AND(YEAR(JanSun1+34)=$A$3,MONTH(JanSun1+34)=1),JanSun1+34, "")</f>
@@ -2652,23 +2652,23 @@
       <c r="J10" s="5"/>
       <c r="K10" s="6">
         <f>IF(AND(YEAR(AprSun1+28)=$A$3,MONTH(AprSun1+28)=4),AprSun1+28, "")</f>
-        <v>43583</v>
+        <v>43947</v>
       </c>
       <c r="L10" s="6">
         <f>IF(AND(YEAR(AprSun1+29)=$A$3,MONTH(AprSun1+29)=4),AprSun1+29, "")</f>
-        <v>43584</v>
+        <v>43948</v>
       </c>
       <c r="M10" s="6">
         <f>IF(AND(YEAR(AprSun1+30)=$A$3,MONTH(AprSun1+30)=4),AprSun1+30, "")</f>
-        <v>43585</v>
-      </c>
-      <c r="N10" s="6" t="str">
+        <v>43949</v>
+      </c>
+      <c r="N10" s="6">
         <f>IF(AND(YEAR(AprSun1+31)=$A$3,MONTH(AprSun1+31)=4),AprSun1+31, "")</f>
-        <v/>
-      </c>
-      <c r="O10" s="6" t="str">
+        <v>43950</v>
+      </c>
+      <c r="O10" s="6">
         <f>IF(AND(YEAR(AprSun1+32)=$A$3,MONTH(AprSun1+32)=4),AprSun1+32, "")</f>
-        <v/>
+        <v>43951</v>
       </c>
       <c r="P10" s="7" t="str">
         <f>IF(AND(YEAR(AprSun1+33)=$A$3,MONTH(AprSun1+33)=4),AprSun1+33, "")</f>
@@ -2681,27 +2681,27 @@
       <c r="R10" s="5"/>
       <c r="S10" s="6">
         <f>IF(AND(YEAR(JulSun1+28)=$A$3,MONTH(JulSun1+28)=7),JulSun1+28, "")</f>
-        <v>43674</v>
+        <v>44038</v>
       </c>
       <c r="T10" s="6">
         <f>IF(AND(YEAR(JulSun1+29)=$A$3,MONTH(JulSun1+29)=7),JulSun1+29, "")</f>
-        <v>43675</v>
+        <v>44039</v>
       </c>
       <c r="U10" s="6">
         <f>IF(AND(YEAR(JulSun1+30)=$A$3,MONTH(JulSun1+30)=7),JulSun1+30, "")</f>
-        <v>43676</v>
+        <v>44040</v>
       </c>
       <c r="V10" s="6">
         <f>IF(AND(YEAR(JulSun1+31)=$A$3,MONTH(JulSun1+31)=7),JulSun1+31, "")</f>
-        <v>43677</v>
-      </c>
-      <c r="W10" s="6" t="str">
+        <v>44041</v>
+      </c>
+      <c r="W10" s="6">
         <f>IF(AND(YEAR(JulSun1+32)=$A$3,MONTH(JulSun1+32)=7),JulSun1+32, "")</f>
-        <v/>
-      </c>
-      <c r="X10" s="7" t="str">
+        <v>44042</v>
+      </c>
+      <c r="X10" s="7">
         <f>IF(AND(YEAR(JulSun1+33)=$A$3,MONTH(JulSun1+33)=7),JulSun1+33, "")</f>
-        <v/>
+        <v>44043</v>
       </c>
       <c r="Y10" s="6" t="str">
         <f>IF(AND(YEAR(JulSun1+34)=$A$3,MONTH(JulSun1+34)=7),JulSun1+34, "")</f>
@@ -2710,31 +2710,31 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="6">
         <f>IF(AND(YEAR(OctSun1+28)=$A$3,MONTH(OctSun1+28)=10),OctSun1+28, "")</f>
-        <v>43765</v>
+        <v>44129</v>
       </c>
       <c r="AB10" s="6">
         <f>IF(AND(YEAR(OctSun1+29)=$A$3,MONTH(OctSun1+29)=10),OctSun1+29, "")</f>
-        <v>43766</v>
+        <v>44130</v>
       </c>
       <c r="AC10" s="6">
         <f>IF(AND(YEAR(OctSun1+30)=$A$3,MONTH(OctSun1+30)=10),OctSun1+30, "")</f>
-        <v>43767</v>
+        <v>44131</v>
       </c>
       <c r="AD10" s="6">
         <f>IF(AND(YEAR(OctSun1+31)=$A$3,MONTH(OctSun1+31)=10),OctSun1+31, "")</f>
-        <v>43768</v>
+        <v>44132</v>
       </c>
       <c r="AE10" s="6">
         <f>IF(AND(YEAR(OctSun1+32)=$A$3,MONTH(OctSun1+32)=10),OctSun1+32, "")</f>
-        <v>43769</v>
-      </c>
-      <c r="AF10" s="7" t="str">
+        <v>44133</v>
+      </c>
+      <c r="AF10" s="7">
         <f>IF(AND(YEAR(OctSun1+33)=$A$3,MONTH(OctSun1+33)=10),OctSun1+33, "")</f>
-        <v/>
-      </c>
-      <c r="AG10" s="6" t="str">
+        <v>44134</v>
+      </c>
+      <c r="AG10" s="6">
         <f>IF(AND(YEAR(OctSun1+34)=$A$3,MONTH(OctSun1+34)=10),OctSun1+34, "")</f>
-        <v/>
+        <v>44135</v>
       </c>
       <c r="AI10" s="45" t="s">
         <v>19</v>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="AK10" s="26">
         <f>DATE((A3),5,CHOOSE(WEEKDAY(DATE((A3),5,1)),30,29,28,27,26,25,31))</f>
-        <v>43612</v>
+        <v>43976</v>
       </c>
       <c r="AL10" s="46" t="s">
         <v>65</v>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="AK11" s="26">
         <f>DATE(A3,6,1)+14+CHOOSE(WEEKDAY(DATE(A3,6,1)),0,6,5,4,3,2,1)</f>
-        <v>43632</v>
+        <v>44003</v>
       </c>
       <c r="AL11" s="47" t="s">
         <v>66</v>
@@ -2898,7 +2898,7 @@
       <c r="F12" s="22"/>
       <c r="G12" s="19">
         <f>AK6</f>
-        <v>43486</v>
+        <v>43850</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="20"/>
@@ -2909,7 +2909,7 @@
       <c r="M12" s="22"/>
       <c r="N12" s="18">
         <f>AK8</f>
-        <v>43576</v>
+        <v>43933</v>
       </c>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -2921,7 +2921,7 @@
       <c r="U12" s="22"/>
       <c r="V12" s="19">
         <f>AK12</f>
-        <v>43650</v>
+        <v>44016</v>
       </c>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
@@ -2931,11 +2931,11 @@
       </c>
       <c r="AB12" s="22"/>
       <c r="AC12" s="22"/>
-      <c r="AD12" s="66">
+      <c r="AD12" s="69">
         <f>AK14</f>
-        <v>43752</v>
-      </c>
-      <c r="AE12" s="66"/>
+        <v>44116</v>
+      </c>
+      <c r="AE12" s="69"/>
       <c r="AF12" s="10"/>
       <c r="AG12" s="11"/>
       <c r="AI12" s="45" t="s">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="AK12" s="25">
         <f>DATE(A3,7,4)</f>
-        <v>43650</v>
+        <v>44016</v>
       </c>
       <c r="AL12" s="46" t="s">
         <v>65</v>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="AK13" s="25">
         <f>DATE(A3,9,1)+CHOOSE(WEEKDAY(DATE(A3,9,1)),1,0,6,5,4,3,2)</f>
-        <v>43710</v>
+        <v>44081</v>
       </c>
       <c r="AL13" s="46" t="s">
         <v>65</v>
@@ -3007,42 +3007,42 @@
       <c r="AP13" s="42"/>
     </row>
     <row r="14" spans="1:43" ht="18.75" customHeight="1">
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="K14" s="63" t="s">
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="K14" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="S14" s="63" t="s">
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="S14" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="T14" s="63"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="63"/>
-      <c r="W14" s="63"/>
-      <c r="X14" s="63"/>
-      <c r="Y14" s="63"/>
-      <c r="AA14" s="63" t="s">
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="AA14" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="AB14" s="63"/>
-      <c r="AC14" s="63"/>
-      <c r="AD14" s="63"/>
-      <c r="AE14" s="63"/>
-      <c r="AF14" s="63"/>
-      <c r="AG14" s="63"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="68"/>
+      <c r="AF14" s="68"/>
+      <c r="AG14" s="68"/>
       <c r="AI14" s="45" t="s">
         <v>25</v>
       </c>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="AK14" s="25">
         <f>DATE(A3,10,1)+7+CHOOSE(WEEKDAY(DATE(A3,10,1)),1,0,6,5,4,3,2)</f>
-        <v>43752</v>
+        <v>44116</v>
       </c>
       <c r="AL14" s="47" t="s">
         <v>66</v>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="AK15" s="25">
         <f>DATE(A3,11,11)</f>
-        <v>43780</v>
+        <v>44146</v>
       </c>
       <c r="AL15" s="47" t="s">
         <v>66</v>
@@ -3187,13 +3187,13 @@
         <f>IF(AND(YEAR(FebSun1+4)=$A$3,MONTH(FebSun1+4)=2),FebSun1+4, "")</f>
         <v/>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="7" t="str">
         <f>IF(AND(YEAR(FebSun1+5)=$A$3,MONTH(FebSun1+5)=2),FebSun1+5, "")</f>
-        <v>43497</v>
+        <v/>
       </c>
       <c r="I16" s="6">
         <f>IF(AND(YEAR(FebSun1+6)=$A$3,MONTH(FebSun1+6)=2),FebSun1+6, "")</f>
-        <v>43498</v>
+        <v>43862</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="6" t="str">
@@ -3208,21 +3208,21 @@
         <f>IF(AND(YEAR(MaySun1+2)=$A$3,MONTH(MaySun1+2)=5),MaySun1+2, "")</f>
         <v/>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="6" t="str">
         <f>IF(AND(YEAR(MaySun1+3)=$A$3,MONTH(MaySun1+3)=5),MaySun1+3, "")</f>
-        <v>43586</v>
-      </c>
-      <c r="O16" s="6">
+        <v/>
+      </c>
+      <c r="O16" s="6" t="str">
         <f>IF(AND(YEAR(MaySun1+4)=$A$3,MONTH(MaySun1+4)=5),MaySun1+4, "")</f>
-        <v>43587</v>
+        <v/>
       </c>
       <c r="P16" s="7">
         <f>IF(AND(YEAR(MaySun1+5)=$A$3,MONTH(MaySun1+5)=5),MaySun1+5, "")</f>
-        <v>43588</v>
+        <v>43952</v>
       </c>
       <c r="Q16" s="6">
         <f>IF(AND(YEAR(MaySun1+6)=$A$3,MONTH(MaySun1+6)=5),MaySun1+6, "")</f>
-        <v>43589</v>
+        <v>43953</v>
       </c>
       <c r="R16" s="5"/>
       <c r="S16" s="6" t="str">
@@ -3241,46 +3241,46 @@
         <f>IF(AND(YEAR(AugSun1+3)=$A$3,MONTH(AugSun1+3)=8),AugSun1+3, "")</f>
         <v/>
       </c>
-      <c r="W16" s="6">
+      <c r="W16" s="6" t="str">
         <f>IF(AND(YEAR(AugSun1+4)=$A$3,MONTH(AugSun1+4)=8),AugSun1+4, "")</f>
-        <v>43678</v>
-      </c>
-      <c r="X16" s="7">
+        <v/>
+      </c>
+      <c r="X16" s="7" t="str">
         <f>IF(AND(YEAR(AugSun1+5)=$A$3,MONTH(AugSun1+5)=8),AugSun1+5, "")</f>
-        <v>43679</v>
+        <v/>
       </c>
       <c r="Y16" s="6">
         <f>IF(AND(YEAR(AugSun1+6)=$A$3,MONTH(AugSun1+6)=8),AugSun1+6, "")</f>
-        <v>43680</v>
+        <v>44044</v>
       </c>
       <c r="Z16" s="5"/>
-      <c r="AA16" s="6" t="str">
+      <c r="AA16" s="6">
         <f>IF(AND(YEAR(NovSun1)=$A$3,MONTH(NovSun1)=11),NovSun1, "")</f>
-        <v/>
-      </c>
-      <c r="AB16" s="6" t="str">
+        <v>44136</v>
+      </c>
+      <c r="AB16" s="6">
         <f>IF(AND(YEAR(NovSun1+1)=$A$3,MONTH(NovSun1+1)=11),NovSun1+1, "")</f>
-        <v/>
-      </c>
-      <c r="AC16" s="6" t="str">
+        <v>44137</v>
+      </c>
+      <c r="AC16" s="6">
         <f>IF(AND(YEAR(NovSun1+2)=$A$3,MONTH(NovSun1+2)=11),NovSun1+2, "")</f>
-        <v/>
-      </c>
-      <c r="AD16" s="6" t="str">
+        <v>44138</v>
+      </c>
+      <c r="AD16" s="6">
         <f>IF(AND(YEAR(NovSun1+3)=$A$3,MONTH(NovSun1+3)=11),NovSun1+3, "")</f>
-        <v/>
-      </c>
-      <c r="AE16" s="6" t="str">
+        <v>44139</v>
+      </c>
+      <c r="AE16" s="6">
         <f>IF(AND(YEAR(NovSun1+4)=$A$3,MONTH(NovSun1+4)=11),NovSun1+4, "")</f>
-        <v/>
+        <v>44140</v>
       </c>
       <c r="AF16" s="7">
         <f>IF(AND(YEAR(NovSun1+5)=$A$3,MONTH(NovSun1+5)=11),NovSun1+5, "")</f>
-        <v>43770</v>
+        <v>44141</v>
       </c>
       <c r="AG16" s="6">
         <f>IF(AND(YEAR(NovSun1+6)=$A$3,MONTH(NovSun1+6)=11),NovSun1+6, "")</f>
-        <v>43771</v>
+        <v>44142</v>
       </c>
       <c r="AI16" s="45" t="s">
         <v>29</v>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="AK16" s="25">
         <f>DATE(A3,11,1)+21+CHOOSE(WEEKDAY(DATE(A3,11,1)),4,3,2,1,0,6,5)</f>
-        <v>43797</v>
+        <v>44161</v>
       </c>
       <c r="AL16" s="46" t="s">
         <v>65</v>
@@ -3304,118 +3304,118 @@
       <c r="B17" s="5"/>
       <c r="C17" s="6">
         <f>IF(AND(YEAR(FebSun1+7)=$A$3,MONTH(FebSun1+7)=2),FebSun1+7, "")</f>
-        <v>43499</v>
+        <v>43863</v>
       </c>
       <c r="D17" s="6">
         <f>IF(AND(YEAR(FebSun1+8)=$A$3,MONTH(FebSun1+8)=2),FebSun1+8, "")</f>
-        <v>43500</v>
+        <v>43864</v>
       </c>
       <c r="E17" s="6">
         <f>IF(AND(YEAR(FebSun1+9)=$A$3,MONTH(FebSun1+9)=2),FebSun1+9, "")</f>
-        <v>43501</v>
+        <v>43865</v>
       </c>
       <c r="F17" s="6">
         <f>IF(AND(YEAR(FebSun1+10)=$A$3,MONTH(FebSun1+10)=2),FebSun1+10, "")</f>
-        <v>43502</v>
+        <v>43866</v>
       </c>
       <c r="G17" s="6">
         <f>IF(AND(YEAR(FebSun1+11)=$A$3,MONTH(FebSun1+11)=2),FebSun1+11, "")</f>
-        <v>43503</v>
+        <v>43867</v>
       </c>
       <c r="H17" s="7">
         <f>IF(AND(YEAR(FebSun1+12)=$A$3,MONTH(FebSun1+12)=2),FebSun1+12, "")</f>
-        <v>43504</v>
+        <v>43868</v>
       </c>
       <c r="I17" s="6">
         <f>IF(AND(YEAR(FebSun1+13)=$A$3,MONTH(FebSun1+13)=2),FebSun1+13, "")</f>
-        <v>43505</v>
+        <v>43869</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="6">
         <f>IF(AND(YEAR(MaySun1+7)=$A$3,MONTH(MaySun1+7)=5),MaySun1+7, "")</f>
-        <v>43590</v>
+        <v>43954</v>
       </c>
       <c r="L17" s="6">
         <f>IF(AND(YEAR(MaySun1+8)=$A$3,MONTH(MaySun1+8)=5),MaySun1+8, "")</f>
-        <v>43591</v>
+        <v>43955</v>
       </c>
       <c r="M17" s="6">
         <f>IF(AND(YEAR(MaySun1+9)=$A$3,MONTH(MaySun1+9)=5),MaySun1+9, "")</f>
-        <v>43592</v>
+        <v>43956</v>
       </c>
       <c r="N17" s="6">
         <f>IF(AND(YEAR(MaySun1+10)=$A$3,MONTH(MaySun1+10)=5),MaySun1+10, "")</f>
-        <v>43593</v>
+        <v>43957</v>
       </c>
       <c r="O17" s="6">
         <f>IF(AND(YEAR(MaySun1+11)=$A$3,MONTH(MaySun1+11)=5),MaySun1+11, "")</f>
-        <v>43594</v>
+        <v>43958</v>
       </c>
       <c r="P17" s="7">
         <f>IF(AND(YEAR(MaySun1+12)=$A$3,MONTH(MaySun1+12)=5),MaySun1+12, "")</f>
-        <v>43595</v>
+        <v>43959</v>
       </c>
       <c r="Q17" s="6">
         <f>IF(AND(YEAR(MaySun1+13)=$A$3,MONTH(MaySun1+13)=5),MaySun1+13, "")</f>
-        <v>43596</v>
+        <v>43960</v>
       </c>
       <c r="R17" s="5"/>
       <c r="S17" s="6">
         <f>IF(AND(YEAR(AugSun1+7)=$A$3,MONTH(AugSun1+7)=8),AugSun1+7, "")</f>
-        <v>43681</v>
+        <v>44045</v>
       </c>
       <c r="T17" s="6">
         <f>IF(AND(YEAR(AugSun1+8)=$A$3,MONTH(AugSun1+8)=8),AugSun1+8, "")</f>
-        <v>43682</v>
+        <v>44046</v>
       </c>
       <c r="U17" s="6">
         <f>IF(AND(YEAR(AugSun1+9)=$A$3,MONTH(AugSun1+9)=8),AugSun1+9, "")</f>
-        <v>43683</v>
+        <v>44047</v>
       </c>
       <c r="V17" s="6">
         <f>IF(AND(YEAR(AugSun1+10)=$A$3,MONTH(AugSun1+10)=8),AugSun1+10, "")</f>
-        <v>43684</v>
+        <v>44048</v>
       </c>
       <c r="W17" s="6">
         <f>IF(AND(YEAR(AugSun1+11)=$A$3,MONTH(AugSun1+11)=8),AugSun1+11, "")</f>
-        <v>43685</v>
+        <v>44049</v>
       </c>
       <c r="X17" s="7">
         <f>IF(AND(YEAR(AugSun1+12)=$A$3,MONTH(AugSun1+12)=8),AugSun1+12, "")</f>
-        <v>43686</v>
+        <v>44050</v>
       </c>
       <c r="Y17" s="6">
         <f>IF(AND(YEAR(AugSun1+13)=$A$3,MONTH(AugSun1+13)=8),AugSun1+13, "")</f>
-        <v>43687</v>
+        <v>44051</v>
       </c>
       <c r="Z17" s="5"/>
       <c r="AA17" s="6">
         <f>IF(AND(YEAR(NovSun1+7)=$A$3,MONTH(NovSun1+7)=11),NovSun1+7, "")</f>
-        <v>43772</v>
+        <v>44143</v>
       </c>
       <c r="AB17" s="6">
         <f>IF(AND(YEAR(NovSun1+8)=$A$3,MONTH(NovSun1+8)=11),NovSun1+8, "")</f>
-        <v>43773</v>
+        <v>44144</v>
       </c>
       <c r="AC17" s="6">
         <f>IF(AND(YEAR(NovSun1+9)=$A$3,MONTH(NovSun1+9)=11),NovSun1+9, "")</f>
-        <v>43774</v>
+        <v>44145</v>
       </c>
       <c r="AD17" s="6">
         <f>IF(AND(YEAR(NovSun1+10)=$A$3,MONTH(NovSun1+10)=11),NovSun1+10, "")</f>
-        <v>43775</v>
+        <v>44146</v>
       </c>
       <c r="AE17" s="6">
         <f>IF(AND(YEAR(NovSun1+11)=$A$3,MONTH(NovSun1+11)=11),NovSun1+11, "")</f>
-        <v>43776</v>
+        <v>44147</v>
       </c>
       <c r="AF17" s="7">
         <f>IF(AND(YEAR(NovSun1+12)=$A$3,MONTH(NovSun1+12)=11),NovSun1+12, "")</f>
-        <v>43777</v>
+        <v>44148</v>
       </c>
       <c r="AG17" s="6">
         <f>IF(AND(YEAR(NovSun1+13)=$A$3,MONTH(NovSun1+13)=11),NovSun1+13, "")</f>
-        <v>43778</v>
+        <v>44149</v>
       </c>
       <c r="AI17" s="45" t="s">
         <v>44</v>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="AK17" s="25">
         <f>AK16+1</f>
-        <v>43798</v>
+        <v>44162</v>
       </c>
       <c r="AL17" s="46" t="s">
         <v>65</v>
@@ -3439,118 +3439,118 @@
       <c r="B18" s="5"/>
       <c r="C18" s="6">
         <f>IF(AND(YEAR(FebSun1+14)=$A$3,MONTH(FebSun1+14)=2),FebSun1+14, "")</f>
-        <v>43506</v>
+        <v>43870</v>
       </c>
       <c r="D18" s="6">
         <f>IF(AND(YEAR(FebSun1+15)=$A$3,MONTH(FebSun1+15)=2),FebSun1+15, "")</f>
-        <v>43507</v>
+        <v>43871</v>
       </c>
       <c r="E18" s="6">
         <f>IF(AND(YEAR(FebSun1+16)=$A$3,MONTH(FebSun1+16)=2),FebSun1+16, "")</f>
-        <v>43508</v>
+        <v>43872</v>
       </c>
       <c r="F18" s="6">
         <f>IF(AND(YEAR(FebSun1+17)=$A$3,MONTH(FebSun1+17)=2),FebSun1+17, "")</f>
-        <v>43509</v>
+        <v>43873</v>
       </c>
       <c r="G18" s="6">
         <f>IF(AND(YEAR(FebSun1+18)=$A$3,MONTH(FebSun1+18)=2),FebSun1+18, "")</f>
-        <v>43510</v>
+        <v>43874</v>
       </c>
       <c r="H18" s="7">
         <f>IF(AND(YEAR(FebSun1+19)=$A$3,MONTH(FebSun1+19)=2),FebSun1+19, "")</f>
-        <v>43511</v>
+        <v>43875</v>
       </c>
       <c r="I18" s="6">
         <f>IF(AND(YEAR(FebSun1+20)=$A$3,MONTH(FebSun1+20)=2),FebSun1+20, "")</f>
-        <v>43512</v>
+        <v>43876</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="6">
         <f>IF(AND(YEAR(MaySun1+14)=$A$3,MONTH(MaySun1+14)=5),MaySun1+14, "")</f>
-        <v>43597</v>
+        <v>43961</v>
       </c>
       <c r="L18" s="6">
         <f>IF(AND(YEAR(MaySun1+15)=$A$3,MONTH(MaySun1+15)=5),MaySun1+15, "")</f>
-        <v>43598</v>
+        <v>43962</v>
       </c>
       <c r="M18" s="6">
         <f>IF(AND(YEAR(MaySun1+16)=$A$3,MONTH(MaySun1+16)=5),MaySun1+16, "")</f>
-        <v>43599</v>
+        <v>43963</v>
       </c>
       <c r="N18" s="6">
         <f>IF(AND(YEAR(MaySun1+17)=$A$3,MONTH(MaySun1+17)=5),MaySun1+17, "")</f>
-        <v>43600</v>
+        <v>43964</v>
       </c>
       <c r="O18" s="6">
         <f>IF(AND(YEAR(MaySun1+18)=$A$3,MONTH(MaySun1+18)=5),MaySun1+18, "")</f>
-        <v>43601</v>
+        <v>43965</v>
       </c>
       <c r="P18" s="7">
         <f>IF(AND(YEAR(MaySun1+19)=$A$3,MONTH(MaySun1+19)=5),MaySun1+19, "")</f>
-        <v>43602</v>
+        <v>43966</v>
       </c>
       <c r="Q18" s="6">
         <f>IF(AND(YEAR(MaySun1+20)=$A$3,MONTH(MaySun1+20)=5),MaySun1+20, "")</f>
-        <v>43603</v>
+        <v>43967</v>
       </c>
       <c r="R18" s="5"/>
       <c r="S18" s="6">
         <f>IF(AND(YEAR(AugSun1+14)=$A$3,MONTH(AugSun1+14)=8),AugSun1+14, "")</f>
-        <v>43688</v>
+        <v>44052</v>
       </c>
       <c r="T18" s="6">
         <f>IF(AND(YEAR(AugSun1+15)=$A$3,MONTH(AugSun1+15)=8),AugSun1+15, "")</f>
-        <v>43689</v>
+        <v>44053</v>
       </c>
       <c r="U18" s="6">
         <f>IF(AND(YEAR(AugSun1+16)=$A$3,MONTH(AugSun1+16)=8),AugSun1+16, "")</f>
-        <v>43690</v>
+        <v>44054</v>
       </c>
       <c r="V18" s="6">
         <f>IF(AND(YEAR(AugSun1+17)=$A$3,MONTH(AugSun1+17)=8),AugSun1+17, "")</f>
-        <v>43691</v>
+        <v>44055</v>
       </c>
       <c r="W18" s="6">
         <f>IF(AND(YEAR(AugSun1+18)=$A$3,MONTH(AugSun1+18)=8),AugSun1+18, "")</f>
-        <v>43692</v>
+        <v>44056</v>
       </c>
       <c r="X18" s="7">
         <f>IF(AND(YEAR(AugSun1+19)=$A$3,MONTH(AugSun1+19)=8),AugSun1+19, "")</f>
-        <v>43693</v>
+        <v>44057</v>
       </c>
       <c r="Y18" s="6">
         <f>IF(AND(YEAR(AugSun1+20)=$A$3,MONTH(AugSun1+20)=8),AugSun1+20, "")</f>
-        <v>43694</v>
+        <v>44058</v>
       </c>
       <c r="Z18" s="5"/>
       <c r="AA18" s="6">
         <f>IF(AND(YEAR(NovSun1+14)=$A$3,MONTH(NovSun1+14)=11),NovSun1+14, "")</f>
-        <v>43779</v>
+        <v>44150</v>
       </c>
       <c r="AB18" s="6">
         <f>IF(AND(YEAR(NovSun1+15)=$A$3,MONTH(NovSun1+15)=11),NovSun1+15, "")</f>
-        <v>43780</v>
+        <v>44151</v>
       </c>
       <c r="AC18" s="6">
         <f>IF(AND(YEAR(NovSun1+16)=$A$3,MONTH(NovSun1+16)=11),NovSun1+16, "")</f>
-        <v>43781</v>
+        <v>44152</v>
       </c>
       <c r="AD18" s="6">
         <f>IF(AND(YEAR(NovSun1+17)=$A$3,MONTH(NovSun1+17)=11),NovSun1+17, "")</f>
-        <v>43782</v>
+        <v>44153</v>
       </c>
       <c r="AE18" s="6">
         <f>IF(AND(YEAR(NovSun1+18)=$A$3,MONTH(NovSun1+18)=11),NovSun1+18, "")</f>
-        <v>43783</v>
+        <v>44154</v>
       </c>
       <c r="AF18" s="7">
         <f>IF(AND(YEAR(NovSun1+19)=$A$3,MONTH(NovSun1+19)=11),NovSun1+19, "")</f>
-        <v>43784</v>
+        <v>44155</v>
       </c>
       <c r="AG18" s="6">
         <f>IF(AND(YEAR(NovSun1+20)=$A$3,MONTH(NovSun1+20)=11),NovSun1+20, "")</f>
-        <v>43785</v>
+        <v>44156</v>
       </c>
       <c r="AI18" s="45" t="s">
         <v>67</v>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="AK18" s="25">
         <f>DATE(A3,12,24)</f>
-        <v>43823</v>
+        <v>44189</v>
       </c>
       <c r="AL18" s="46" t="s">
         <v>65</v>
@@ -3574,118 +3574,118 @@
       <c r="B19" s="5"/>
       <c r="C19" s="6">
         <f>IF(AND(YEAR(FebSun1+21)=$A$3,MONTH(FebSun1+21)=2),FebSun1+21, "")</f>
-        <v>43513</v>
+        <v>43877</v>
       </c>
       <c r="D19" s="6">
         <f>IF(AND(YEAR(FebSun1+22)=$A$3,MONTH(FebSun1+22)=2),FebSun1+22, "")</f>
-        <v>43514</v>
+        <v>43878</v>
       </c>
       <c r="E19" s="6">
         <f>IF(AND(YEAR(FebSun1+23)=$A$3,MONTH(FebSun1+23)=2),FebSun1+23, "")</f>
-        <v>43515</v>
+        <v>43879</v>
       </c>
       <c r="F19" s="6">
         <f>IF(AND(YEAR(FebSun1+24)=$A$3,MONTH(FebSun1+24)=2),FebSun1+24, "")</f>
-        <v>43516</v>
+        <v>43880</v>
       </c>
       <c r="G19" s="6">
         <f>IF(AND(YEAR(FebSun1+25)=$A$3,MONTH(FebSun1+25)=2),FebSun1+25, "")</f>
-        <v>43517</v>
+        <v>43881</v>
       </c>
       <c r="H19" s="7">
         <f>IF(AND(YEAR(FebSun1+26)=$A$3,MONTH(FebSun1+26)=2),FebSun1+26, "")</f>
-        <v>43518</v>
+        <v>43882</v>
       </c>
       <c r="I19" s="6">
         <f>IF(AND(YEAR(FebSun1+27)=$A$3,MONTH(FebSun1+27)=2),FebSun1+27, "")</f>
-        <v>43519</v>
+        <v>43883</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="6">
         <f>IF(AND(YEAR(MaySun1+21)=$A$3,MONTH(MaySun1+21)=5),MaySun1+21, "")</f>
-        <v>43604</v>
+        <v>43968</v>
       </c>
       <c r="L19" s="6">
         <f>IF(AND(YEAR(MaySun1+22)=$A$3,MONTH(MaySun1+22)=5),MaySun1+22, "")</f>
-        <v>43605</v>
+        <v>43969</v>
       </c>
       <c r="M19" s="6">
         <f>IF(AND(YEAR(MaySun1+23)=$A$3,MONTH(MaySun1+23)=5),MaySun1+23, "")</f>
-        <v>43606</v>
+        <v>43970</v>
       </c>
       <c r="N19" s="6">
         <f>IF(AND(YEAR(MaySun1+24)=$A$3,MONTH(MaySun1+24)=5),MaySun1+24, "")</f>
-        <v>43607</v>
+        <v>43971</v>
       </c>
       <c r="O19" s="6">
         <f>IF(AND(YEAR(MaySun1+25)=$A$3,MONTH(MaySun1+25)=5),MaySun1+25, "")</f>
-        <v>43608</v>
+        <v>43972</v>
       </c>
       <c r="P19" s="7">
         <f>IF(AND(YEAR(MaySun1+26)=$A$3,MONTH(MaySun1+26)=5),MaySun1+26, "")</f>
-        <v>43609</v>
+        <v>43973</v>
       </c>
       <c r="Q19" s="6">
         <f>IF(AND(YEAR(MaySun1+27)=$A$3,MONTH(MaySun1+27)=5),MaySun1+27, "")</f>
-        <v>43610</v>
+        <v>43974</v>
       </c>
       <c r="R19" s="5"/>
       <c r="S19" s="6">
         <f>IF(AND(YEAR(AugSun1+21)=$A$3,MONTH(AugSun1+21)=8),AugSun1+21, "")</f>
-        <v>43695</v>
+        <v>44059</v>
       </c>
       <c r="T19" s="6">
         <f>IF(AND(YEAR(AugSun1+22)=$A$3,MONTH(AugSun1+22)=8),AugSun1+22, "")</f>
-        <v>43696</v>
+        <v>44060</v>
       </c>
       <c r="U19" s="6">
         <f>IF(AND(YEAR(AugSun1+23)=$A$3,MONTH(AugSun1+23)=8),AugSun1+23, "")</f>
-        <v>43697</v>
+        <v>44061</v>
       </c>
       <c r="V19" s="6">
         <f>IF(AND(YEAR(AugSun1+24)=$A$3,MONTH(AugSun1+24)=8),AugSun1+24, "")</f>
-        <v>43698</v>
+        <v>44062</v>
       </c>
       <c r="W19" s="6">
         <f>IF(AND(YEAR(AugSun1+25)=$A$3,MONTH(AugSun1+25)=8),AugSun1+25, "")</f>
-        <v>43699</v>
+        <v>44063</v>
       </c>
       <c r="X19" s="7">
         <f>IF(AND(YEAR(AugSun1+26)=$A$3,MONTH(AugSun1+26)=8),AugSun1+26, "")</f>
-        <v>43700</v>
+        <v>44064</v>
       </c>
       <c r="Y19" s="6">
         <f>IF(AND(YEAR(AugSun1+27)=$A$3,MONTH(AugSun1+27)=8),AugSun1+27, "")</f>
-        <v>43701</v>
+        <v>44065</v>
       </c>
       <c r="Z19" s="5"/>
       <c r="AA19" s="6">
         <f>IF(AND(YEAR(NovSun1+21)=$A$3,MONTH(NovSun1+21)=11),NovSun1+21, "")</f>
-        <v>43786</v>
+        <v>44157</v>
       </c>
       <c r="AB19" s="6">
         <f>IF(AND(YEAR(NovSun1+22)=$A$3,MONTH(NovSun1+22)=11),NovSun1+22, "")</f>
-        <v>43787</v>
+        <v>44158</v>
       </c>
       <c r="AC19" s="6">
         <f>IF(AND(YEAR(NovSun1+23)=$A$3,MONTH(NovSun1+23)=11),NovSun1+23, "")</f>
-        <v>43788</v>
+        <v>44159</v>
       </c>
       <c r="AD19" s="6">
         <f>IF(AND(YEAR(NovSun1+24)=$A$3,MONTH(NovSun1+24)=11),NovSun1+24, "")</f>
-        <v>43789</v>
+        <v>44160</v>
       </c>
       <c r="AE19" s="6">
         <f>IF(AND(YEAR(NovSun1+25)=$A$3,MONTH(NovSun1+25)=11),NovSun1+25, "")</f>
-        <v>43790</v>
+        <v>44161</v>
       </c>
       <c r="AF19" s="7">
         <f>IF(AND(YEAR(NovSun1+26)=$A$3,MONTH(NovSun1+26)=11),NovSun1+26, "")</f>
-        <v>43791</v>
+        <v>44162</v>
       </c>
       <c r="AG19" s="6">
         <f>IF(AND(YEAR(NovSun1+27)=$A$3,MONTH(NovSun1+27)=11),NovSun1+27, "")</f>
-        <v>43792</v>
+        <v>44163</v>
       </c>
       <c r="AI19" s="51" t="s">
         <v>35</v>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="AK19" s="53">
         <f>DATE(A3,12,25)</f>
-        <v>43824</v>
+        <v>44190</v>
       </c>
       <c r="AL19" s="54" t="s">
         <v>65</v>
@@ -3709,118 +3709,118 @@
       <c r="B20" s="5"/>
       <c r="C20" s="6">
         <f>IF(AND(YEAR(FebSun1+28)=$A$3,MONTH(FebSun1+28)=2),FebSun1+28, "")</f>
-        <v>43520</v>
+        <v>43884</v>
       </c>
       <c r="D20" s="6">
         <f>IF(AND(YEAR(FebSun1+29)=$A$3,MONTH(FebSun1+29)=2),FebSun1+29, "")</f>
-        <v>43521</v>
+        <v>43885</v>
       </c>
       <c r="E20" s="6">
         <f>IF(AND(YEAR(FebSun1+30)=$A$3,MONTH(FebSun1+30)=2),FebSun1+30, "")</f>
-        <v>43522</v>
+        <v>43886</v>
       </c>
       <c r="F20" s="6">
         <f>IF(AND(YEAR(FebSun1+31)=$A$3,MONTH(FebSun1+31)=2),FebSun1+31, "")</f>
-        <v>43523</v>
+        <v>43887</v>
       </c>
       <c r="G20" s="6">
         <f>IF(AND(YEAR(FebSun1+32)=$A$3,MONTH(FebSun1+32)=2),FebSun1+32, "")</f>
-        <v>43524</v>
-      </c>
-      <c r="H20" s="7" t="str">
+        <v>43888</v>
+      </c>
+      <c r="H20" s="7">
         <f>IF(AND(YEAR(FebSun1+33)=$A$3,MONTH(FebSun1+33)=2),FebSun1+33, "")</f>
-        <v/>
-      </c>
-      <c r="I20" s="6" t="str">
+        <v>43889</v>
+      </c>
+      <c r="I20" s="6">
         <f>IF(AND(YEAR(FebSun1+34)=$A$3,MONTH(FebSun1+34)=2),FebSun1+34, "")</f>
-        <v/>
+        <v>43890</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="6">
         <f>IF(AND(YEAR(MaySun1+28)=$A$3,MONTH(MaySun1+28)=5),MaySun1+28, "")</f>
-        <v>43611</v>
+        <v>43975</v>
       </c>
       <c r="L20" s="6">
         <f>IF(AND(YEAR(MaySun1+29)=$A$3,MONTH(MaySun1+29)=5),MaySun1+29, "")</f>
-        <v>43612</v>
+        <v>43976</v>
       </c>
       <c r="M20" s="6">
         <f>IF(AND(YEAR(MaySun1+30)=$A$3,MONTH(MaySun1+30)=5),MaySun1+30, "")</f>
-        <v>43613</v>
+        <v>43977</v>
       </c>
       <c r="N20" s="6">
         <f>IF(AND(YEAR(MaySun1+31)=$A$3,MONTH(MaySun1+31)=5),MaySun1+31, "")</f>
-        <v>43614</v>
+        <v>43978</v>
       </c>
       <c r="O20" s="6">
         <f>IF(AND(YEAR(MaySun1+32)=$A$3,MONTH(MaySun1+32)=5),MaySun1+32, "")</f>
-        <v>43615</v>
+        <v>43979</v>
       </c>
       <c r="P20" s="6">
         <f>IF(AND(YEAR(MaySun1+33)=$A$3,MONTH(MaySun1+33)=5),MaySun1+33, "")</f>
-        <v>43616</v>
-      </c>
-      <c r="Q20" s="6" t="str">
+        <v>43980</v>
+      </c>
+      <c r="Q20" s="6">
         <f>IF(AND(YEAR(MaySun1+34)=$A$3,MONTH(MaySun1+34)=5),MaySun1+34, "")</f>
-        <v/>
+        <v>43981</v>
       </c>
       <c r="R20" s="5"/>
       <c r="S20" s="6">
         <f>IF(AND(YEAR(AugSun1+28)=$A$3,MONTH(AugSun1+28)=8),AugSun1+28, "")</f>
-        <v>43702</v>
+        <v>44066</v>
       </c>
       <c r="T20" s="6">
         <f>IF(AND(YEAR(AugSun1+29)=$A$3,MONTH(AugSun1+29)=8),AugSun1+29, "")</f>
-        <v>43703</v>
+        <v>44067</v>
       </c>
       <c r="U20" s="6">
         <f>IF(AND(YEAR(AugSun1+30)=$A$3,MONTH(AugSun1+30)=8),AugSun1+30, "")</f>
-        <v>43704</v>
+        <v>44068</v>
       </c>
       <c r="V20" s="6">
         <f>IF(AND(YEAR(AugSun1+31)=$A$3,MONTH(AugSun1+31)=8),AugSun1+31, "")</f>
-        <v>43705</v>
+        <v>44069</v>
       </c>
       <c r="W20" s="6">
         <f>IF(AND(YEAR(AugSun1+32)=$A$3,MONTH(AugSun1+32)=8),AugSun1+32, "")</f>
-        <v>43706</v>
+        <v>44070</v>
       </c>
       <c r="X20" s="7">
         <f>IF(AND(YEAR(AugSun1+33)=$A$3,MONTH(AugSun1+33)=8),AugSun1+33, "")</f>
-        <v>43707</v>
+        <v>44071</v>
       </c>
       <c r="Y20" s="6">
         <f>IF(AND(YEAR(AugSun1+34)=$A$3,MONTH(AugSun1+34)=8),AugSun1+34, "")</f>
-        <v>43708</v>
+        <v>44072</v>
       </c>
       <c r="Z20" s="5"/>
       <c r="AA20" s="6">
         <f>IF(AND(YEAR(NovSun1+28)=$A$3,MONTH(NovSun1+28)=11),NovSun1+28, "")</f>
-        <v>43793</v>
+        <v>44164</v>
       </c>
       <c r="AB20" s="6">
         <f>IF(AND(YEAR(NovSun1+29)=$A$3,MONTH(NovSun1+29)=11),NovSun1+29, "")</f>
-        <v>43794</v>
-      </c>
-      <c r="AC20" s="6">
+        <v>44165</v>
+      </c>
+      <c r="AC20" s="6" t="str">
         <f>IF(AND(YEAR(NovSun1+30)=$A$3,MONTH(NovSun1+30)=11),NovSun1+30, "")</f>
-        <v>43795</v>
-      </c>
-      <c r="AD20" s="6">
+        <v/>
+      </c>
+      <c r="AD20" s="6" t="str">
         <f>IF(AND(YEAR(NovSun1+31)=$A$3,MONTH(NovSun1+31)=11),NovSun1+31, "")</f>
-        <v>43796</v>
-      </c>
-      <c r="AE20" s="13">
+        <v/>
+      </c>
+      <c r="AE20" s="13" t="str">
         <f>IF(AND(YEAR(NovSun1+32)=$A$3,MONTH(NovSun1+32)=11),NovSun1+32, "")</f>
-        <v>43797</v>
-      </c>
-      <c r="AF20" s="7">
+        <v/>
+      </c>
+      <c r="AF20" s="7" t="str">
         <f>IF(AND(YEAR(NovSun1+33)=$A$3,MONTH(NovSun1+33)=11),NovSun1+33, "")</f>
-        <v>43798</v>
-      </c>
-      <c r="AG20" s="6">
+        <v/>
+      </c>
+      <c r="AG20" s="6" t="str">
         <f>IF(AND(YEAR(NovSun1+34)=$A$3,MONTH(NovSun1+34)=11),NovSun1+34, "")</f>
-        <v>43799</v>
+        <v/>
       </c>
       <c r="AN20" s="58">
         <f t="shared" si="0"/>
@@ -3858,9 +3858,9 @@
         <v/>
       </c>
       <c r="J21" s="5"/>
-      <c r="K21" s="6" t="str">
+      <c r="K21" s="6">
         <f>IF(AND(YEAR(MaySun1+35)=$A$3,MONTH(MaySun1+35)=5),MaySun1+35, "")</f>
-        <v/>
+        <v>43982</v>
       </c>
       <c r="L21" s="6" t="str">
         <f>IF(AND(YEAR(MaySun1+36)=$A$3,MONTH(MaySun1+36)=5),MaySun1+36, "")</f>
@@ -3887,13 +3887,13 @@
         <v/>
       </c>
       <c r="R21" s="5"/>
-      <c r="S21" s="6" t="str">
+      <c r="S21" s="6">
         <f>IF(AND(YEAR(AugSun1+35)=$A$3,MONTH(AugSun1+35)=8),AugSun1+35, "")</f>
-        <v/>
-      </c>
-      <c r="T21" s="6" t="str">
+        <v>44073</v>
+      </c>
+      <c r="T21" s="6">
         <f>IF(AND(YEAR(AugSun1+36)=$A$3,MONTH(AugSun1+36)=8),AugSun1+36, "")</f>
-        <v/>
+        <v>44074</v>
       </c>
       <c r="U21" s="6" t="str">
         <f>IF(AND(YEAR(AugSun1+37)=$A$3,MONTH(AugSun1+37)=8),AugSun1+37, "")</f>
@@ -3957,7 +3957,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="19">
         <f>AK7</f>
-        <v>43514</v>
+        <v>43878</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="11"/>
@@ -3967,7 +3967,7 @@
       <c r="L22" s="27"/>
       <c r="M22" s="33">
         <f>AK9</f>
-        <v>43597</v>
+        <v>43961</v>
       </c>
       <c r="N22" s="30"/>
       <c r="O22" s="31" t="s">
@@ -3976,7 +3976,7 @@
       <c r="P22" s="28"/>
       <c r="Q22" s="34">
         <f>AK10</f>
-        <v>43612</v>
+        <v>43976</v>
       </c>
       <c r="S22" s="9"/>
       <c r="T22" s="10"/>
@@ -3985,23 +3985,23 @@
       <c r="W22" s="10"/>
       <c r="X22" s="10"/>
       <c r="Y22" s="11"/>
-      <c r="AA22" s="71" t="s">
+      <c r="AA22" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="AB22" s="72"/>
+      <c r="AB22" s="65"/>
       <c r="AC22" s="32">
         <f>AK15</f>
-        <v>43780</v>
-      </c>
-      <c r="AD22" s="67" t="s">
+        <v>44146</v>
+      </c>
+      <c r="AD22" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="AE22" s="68"/>
-      <c r="AF22" s="69" t="str">
+      <c r="AE22" s="71"/>
+      <c r="AF22" s="66" t="str">
         <f>CONCATENATE(TEXT(AK16,"MM/DD")," ","&amp;"," ",TEXT(AK17,"MM/DD"))</f>
-        <v>11/28 &amp; 11/29</v>
-      </c>
-      <c r="AG22" s="70"/>
+        <v>11/26 &amp; 11/27</v>
+      </c>
+      <c r="AG22" s="67"/>
       <c r="AK22"/>
       <c r="AN22" s="58">
         <f t="shared" si="0"/>
@@ -4044,42 +4044,42 @@
       </c>
     </row>
     <row r="24" spans="2:41" ht="18.75" customHeight="1">
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="K24" s="63" t="s">
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="K24" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="63"/>
-      <c r="S24" s="63" t="s">
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="S24" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="T24" s="63"/>
-      <c r="U24" s="63"/>
-      <c r="V24" s="63"/>
-      <c r="W24" s="63"/>
-      <c r="X24" s="63"/>
-      <c r="Y24" s="63"/>
-      <c r="AA24" s="63" t="s">
+      <c r="T24" s="68"/>
+      <c r="U24" s="68"/>
+      <c r="V24" s="68"/>
+      <c r="W24" s="68"/>
+      <c r="X24" s="68"/>
+      <c r="Y24" s="68"/>
+      <c r="AA24" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="AB24" s="63"/>
-      <c r="AC24" s="63"/>
-      <c r="AD24" s="63"/>
-      <c r="AE24" s="63"/>
-      <c r="AF24" s="63"/>
-      <c r="AG24" s="63"/>
+      <c r="AB24" s="68"/>
+      <c r="AC24" s="68"/>
+      <c r="AD24" s="68"/>
+      <c r="AE24" s="68"/>
+      <c r="AF24" s="68"/>
+      <c r="AG24" s="68"/>
       <c r="AI24" s="57" t="s">
         <v>70</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>72</v>
       </c>
       <c r="AJ25" s="55">
-        <v>43741</v>
+        <v>44107</v>
       </c>
       <c r="AK25"/>
       <c r="AN25" s="58">
@@ -4193,126 +4193,126 @@
     </row>
     <row r="26" spans="2:41" ht="18.75" customHeight="1">
       <c r="B26" s="5"/>
-      <c r="C26" s="6" t="str">
+      <c r="C26" s="6">
         <f>IF(AND(YEAR(MarSun1)=$A$3,MONTH(MarSun1)=3),MarSun1, "")</f>
-        <v/>
-      </c>
-      <c r="D26" s="6" t="str">
+        <v>43891</v>
+      </c>
+      <c r="D26" s="6">
         <f>IF(AND(YEAR(MarSun1+1)=$A$3,MONTH(MarSun1+1)=3),MarSun1+1, "")</f>
-        <v/>
-      </c>
-      <c r="E26" s="6" t="str">
+        <v>43892</v>
+      </c>
+      <c r="E26" s="6">
         <f>IF(AND(YEAR(MarSun1+2)=$A$3,MONTH(MarSun1+2)=3),MarSun1+2, "")</f>
-        <v/>
-      </c>
-      <c r="F26" s="6" t="str">
+        <v>43893</v>
+      </c>
+      <c r="F26" s="6">
         <f>IF(AND(YEAR(MarSun1+3)=$A$3,MONTH(MarSun1+3)=3),MarSun1+3, "")</f>
-        <v/>
-      </c>
-      <c r="G26" s="6" t="str">
+        <v>43894</v>
+      </c>
+      <c r="G26" s="6">
         <f>IF(AND(YEAR(MarSun1+4)=$A$3,MONTH(MarSun1+4)=3),MarSun1+4, "")</f>
-        <v/>
+        <v>43895</v>
       </c>
       <c r="H26" s="7">
         <f>IF(AND(YEAR(MarSun1+5)=$A$3,MONTH(MarSun1+5)=3),MarSun1+5, "")</f>
-        <v>43525</v>
+        <v>43896</v>
       </c>
       <c r="I26" s="6">
         <f>IF(AND(YEAR(MarSun1+6)=$A$3,MONTH(MarSun1+6)=3),MarSun1+6, "")</f>
-        <v>43526</v>
+        <v>43897</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="6" t="str">
         <f>IF(AND(YEAR(JunSun1)=$A$3,MONTH(JunSun1)=6),JunSun1, "")</f>
         <v/>
       </c>
-      <c r="L26" s="6" t="str">
+      <c r="L26" s="6">
         <f>IF(AND(YEAR(JunSun1+1)=$A$3,MONTH(JunSun1+1)=6),JunSun1+1, "")</f>
-        <v/>
-      </c>
-      <c r="M26" s="6" t="str">
+        <v>43983</v>
+      </c>
+      <c r="M26" s="6">
         <f>IF(AND(YEAR(JunSun1+2)=$A$3,MONTH(JunSun1+2)=6),JunSun1+2, "")</f>
-        <v/>
-      </c>
-      <c r="N26" s="6" t="str">
+        <v>43984</v>
+      </c>
+      <c r="N26" s="6">
         <f>IF(AND(YEAR(JunSun1+3)=$A$3,MONTH(JunSun1+3)=6),JunSun1+3, "")</f>
-        <v/>
-      </c>
-      <c r="O26" s="6" t="str">
+        <v>43985</v>
+      </c>
+      <c r="O26" s="6">
         <f>IF(AND(YEAR(JunSun1+4)=$A$3,MONTH(JunSun1+4)=6),JunSun1+4, "")</f>
-        <v/>
-      </c>
-      <c r="P26" s="7" t="str">
+        <v>43986</v>
+      </c>
+      <c r="P26" s="7">
         <f>IF(AND(YEAR(JunSun1+5)=$A$3,MONTH(JunSun1+5)=6),JunSun1+5, "")</f>
-        <v/>
+        <v>43987</v>
       </c>
       <c r="Q26" s="6">
         <f>IF(AND(YEAR(JunSun1+6)=$A$3,MONTH(JunSun1+6)=6),JunSun1+6, "")</f>
-        <v>43617</v>
+        <v>43988</v>
       </c>
       <c r="R26" s="5"/>
-      <c r="S26" s="6">
+      <c r="S26" s="6" t="str">
         <f>IF(AND(YEAR(SepSun1)=$A$3,MONTH(SepSun1)=9),SepSun1, "")</f>
-        <v>43709</v>
-      </c>
-      <c r="T26" s="13">
+        <v/>
+      </c>
+      <c r="T26" s="13" t="str">
         <f>IF(AND(YEAR(SepSun1+1)=$A$3,MONTH(SepSun1+1)=9),SepSun1+1, "")</f>
-        <v>43710</v>
+        <v/>
       </c>
       <c r="U26" s="6">
         <f>IF(AND(YEAR(SepSun1+2)=$A$3,MONTH(SepSun1+2)=9),SepSun1+2, "")</f>
-        <v>43711</v>
+        <v>44075</v>
       </c>
       <c r="V26" s="6">
         <f>IF(AND(YEAR(SepSun1+3)=$A$3,MONTH(SepSun1+3)=9),SepSun1+3, "")</f>
-        <v>43712</v>
+        <v>44076</v>
       </c>
       <c r="W26" s="6">
         <f>IF(AND(YEAR(SepSun1+4)=$A$3,MONTH(SepSun1+4)=9),SepSun1+4, "")</f>
-        <v>43713</v>
+        <v>44077</v>
       </c>
       <c r="X26" s="7">
         <f>IF(AND(YEAR(SepSun1+5)=$A$3,MONTH(SepSun1+5)=9),SepSun1+5, "")</f>
-        <v>43714</v>
+        <v>44078</v>
       </c>
       <c r="Y26" s="6">
         <f>IF(AND(YEAR(SepSun1+6)=$A$3,MONTH(SepSun1+6)=9),SepSun1+6, "")</f>
-        <v>43715</v>
+        <v>44079</v>
       </c>
       <c r="Z26" s="5"/>
-      <c r="AA26" s="6">
+      <c r="AA26" s="6" t="str">
         <f>IF(AND(YEAR(DecSun1)=$A$3,MONTH(DecSun1)=12),DecSun1, "")</f>
-        <v>43800</v>
-      </c>
-      <c r="AB26" s="6">
+        <v/>
+      </c>
+      <c r="AB26" s="6" t="str">
         <f>IF(AND(YEAR(DecSun1+1)=$A$3,MONTH(DecSun1+1)=12),DecSun1+1, "")</f>
-        <v>43801</v>
+        <v/>
       </c>
       <c r="AC26" s="6">
         <f>IF(AND(YEAR(DecSun1+2)=$A$3,MONTH(DecSun1+2)=12),DecSun1+2, "")</f>
-        <v>43802</v>
+        <v>44166</v>
       </c>
       <c r="AD26" s="6">
         <f>IF(AND(YEAR(DecSun1+3)=$A$3,MONTH(DecSun1+3)=12),DecSun1+3, "")</f>
-        <v>43803</v>
+        <v>44167</v>
       </c>
       <c r="AE26" s="6">
         <f>IF(AND(YEAR(DecSun1+4)=$A$3,MONTH(DecSun1+4)=12),DecSun1+4, "")</f>
-        <v>43804</v>
+        <v>44168</v>
       </c>
       <c r="AF26" s="7">
         <f>IF(AND(YEAR(DecSun1+5)=$A$3,MONTH(DecSun1+5)=12),DecSun1+5, "")</f>
-        <v>43805</v>
+        <v>44169</v>
       </c>
       <c r="AG26" s="6">
         <f>IF(AND(YEAR(DecSun1+6)=$A$3,MONTH(DecSun1+6)=12),DecSun1+6, "")</f>
-        <v>43806</v>
+        <v>44170</v>
       </c>
       <c r="AI26" s="60" t="s">
         <v>73</v>
       </c>
       <c r="AJ26" s="55">
-        <v>43754</v>
+        <v>44120</v>
       </c>
       <c r="AK26"/>
       <c r="AN26" s="58">
@@ -4324,118 +4324,118 @@
       <c r="B27" s="5"/>
       <c r="C27" s="6">
         <f>IF(AND(YEAR(MarSun1+7)=$A$3,MONTH(MarSun1+7)=3),MarSun1+7, "")</f>
-        <v>43527</v>
+        <v>43898</v>
       </c>
       <c r="D27" s="6">
         <f>IF(AND(YEAR(MarSun1+8)=$A$3,MONTH(MarSun1+8)=3),MarSun1+8, "")</f>
-        <v>43528</v>
+        <v>43899</v>
       </c>
       <c r="E27" s="6">
         <f>IF(AND(YEAR(MarSun1+9)=$A$3,MONTH(MarSun1+9)=3),MarSun1+9, "")</f>
-        <v>43529</v>
+        <v>43900</v>
       </c>
       <c r="F27" s="6">
         <f>IF(AND(YEAR(MarSun1+10)=$A$3,MONTH(MarSun1+10)=3),MarSun1+10, "")</f>
-        <v>43530</v>
+        <v>43901</v>
       </c>
       <c r="G27" s="6">
         <f>IF(AND(YEAR(MarSun1+11)=$A$3,MONTH(MarSun1+11)=3),MarSun1+11, "")</f>
-        <v>43531</v>
+        <v>43902</v>
       </c>
       <c r="H27" s="7">
         <f>IF(AND(YEAR(MarSun1+12)=$A$3,MONTH(MarSun1+12)=3),MarSun1+12, "")</f>
-        <v>43532</v>
+        <v>43903</v>
       </c>
       <c r="I27" s="6">
         <f>IF(AND(YEAR(MarSun1+13)=$A$3,MONTH(MarSun1+13)=3),MarSun1+13, "")</f>
-        <v>43533</v>
+        <v>43904</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="6">
         <f>IF(AND(YEAR(JunSun1+7)=$A$3,MONTH(JunSun1+7)=6),JunSun1+7, "")</f>
-        <v>43618</v>
+        <v>43989</v>
       </c>
       <c r="L27" s="6">
         <f>IF(AND(YEAR(JunSun1+8)=$A$3,MONTH(JunSun1+8)=6),JunSun1+8, "")</f>
-        <v>43619</v>
+        <v>43990</v>
       </c>
       <c r="M27" s="6">
         <f>IF(AND(YEAR(JunSun1+9)=$A$3,MONTH(JunSun1+9)=6),JunSun1+9, "")</f>
-        <v>43620</v>
+        <v>43991</v>
       </c>
       <c r="N27" s="6">
         <f>IF(AND(YEAR(JunSun1+10)=$A$3,MONTH(JunSun1+10)=6),JunSun1+10, "")</f>
-        <v>43621</v>
+        <v>43992</v>
       </c>
       <c r="O27" s="6">
         <f>IF(AND(YEAR(JunSun1+11)=$A$3,MONTH(JunSun1+11)=6),JunSun1+11, "")</f>
-        <v>43622</v>
+        <v>43993</v>
       </c>
       <c r="P27" s="7">
         <f>IF(AND(YEAR(JunSun1+12)=$A$3,MONTH(JunSun1+12)=6),JunSun1+12, "")</f>
-        <v>43623</v>
+        <v>43994</v>
       </c>
       <c r="Q27" s="6">
         <f>IF(AND(YEAR(JunSun1+13)=$A$3,MONTH(JunSun1+13)=6),JunSun1+13, "")</f>
-        <v>43624</v>
+        <v>43995</v>
       </c>
       <c r="R27" s="5"/>
       <c r="S27" s="6">
         <f>IF(AND(YEAR(SepSun1+7)=$A$3,MONTH(SepSun1+7)=9),SepSun1+7, "")</f>
-        <v>43716</v>
+        <v>44080</v>
       </c>
       <c r="T27" s="6">
         <f>IF(AND(YEAR(SepSun1+8)=$A$3,MONTH(SepSun1+8)=9),SepSun1+8, "")</f>
-        <v>43717</v>
+        <v>44081</v>
       </c>
       <c r="U27" s="6">
         <f>IF(AND(YEAR(SepSun1+9)=$A$3,MONTH(SepSun1+9)=9),SepSun1+9, "")</f>
-        <v>43718</v>
+        <v>44082</v>
       </c>
       <c r="V27" s="6">
         <f>IF(AND(YEAR(SepSun1+10)=$A$3,MONTH(SepSun1+10)=9),SepSun1+10, "")</f>
-        <v>43719</v>
+        <v>44083</v>
       </c>
       <c r="W27" s="6">
         <f>IF(AND(YEAR(SepSun1+11)=$A$3,MONTH(SepSun1+11)=9),SepSun1+11, "")</f>
-        <v>43720</v>
+        <v>44084</v>
       </c>
       <c r="X27" s="7">
         <f>IF(AND(YEAR(SepSun1+12)=$A$3,MONTH(SepSun1+12)=9),SepSun1+12, "")</f>
-        <v>43721</v>
+        <v>44085</v>
       </c>
       <c r="Y27" s="6">
         <f>IF(AND(YEAR(SepSun1+13)=$A$3,MONTH(SepSun1+13)=9),SepSun1+13, "")</f>
-        <v>43722</v>
+        <v>44086</v>
       </c>
       <c r="Z27" s="5"/>
       <c r="AA27" s="6">
         <f>IF(AND(YEAR(DecSun1+7)=$A$3,MONTH(DecSun1+7)=12),DecSun1+7, "")</f>
-        <v>43807</v>
+        <v>44171</v>
       </c>
       <c r="AB27" s="6">
         <f>IF(AND(YEAR(DecSun1+8)=$A$3,MONTH(DecSun1+8)=12),DecSun1+8, "")</f>
-        <v>43808</v>
+        <v>44172</v>
       </c>
       <c r="AC27" s="6">
         <f>IF(AND(YEAR(DecSun1+9)=$A$3,MONTH(DecSun1+9)=12),DecSun1+9, "")</f>
-        <v>43809</v>
+        <v>44173</v>
       </c>
       <c r="AD27" s="6">
         <f>IF(AND(YEAR(DecSun1+10)=$A$3,MONTH(DecSun1+10)=12),DecSun1+10, "")</f>
-        <v>43810</v>
+        <v>44174</v>
       </c>
       <c r="AE27" s="6">
         <f>IF(AND(YEAR(DecSun1+11)=$A$3,MONTH(DecSun1+11)=12),DecSun1+11, "")</f>
-        <v>43811</v>
+        <v>44175</v>
       </c>
       <c r="AF27" s="7">
         <f>IF(AND(YEAR(DecSun1+12)=$A$3,MONTH(DecSun1+12)=12),DecSun1+12, "")</f>
-        <v>43812</v>
+        <v>44176</v>
       </c>
       <c r="AG27" s="6">
         <f>IF(AND(YEAR(DecSun1+13)=$A$3,MONTH(DecSun1+13)=12),DecSun1+13, "")</f>
-        <v>43813</v>
+        <v>44177</v>
       </c>
       <c r="AI27" s="60" t="s">
         <v>74</v>
@@ -4453,118 +4453,118 @@
       <c r="B28" s="5"/>
       <c r="C28" s="6">
         <f>IF(AND(YEAR(MarSun1+14)=$A$3,MONTH(MarSun1+14)=3),MarSun1+14, "")</f>
-        <v>43534</v>
+        <v>43905</v>
       </c>
       <c r="D28" s="6">
         <f>IF(AND(YEAR(MarSun1+15)=$A$3,MONTH(MarSun1+15)=3),MarSun1+15, "")</f>
-        <v>43535</v>
+        <v>43906</v>
       </c>
       <c r="E28" s="6">
         <f>IF(AND(YEAR(MarSun1+16)=$A$3,MONTH(MarSun1+16)=3),MarSun1+16, "")</f>
-        <v>43536</v>
+        <v>43907</v>
       </c>
       <c r="F28" s="6">
         <f>IF(AND(YEAR(MarSun1+17)=$A$3,MONTH(MarSun1+17)=3),MarSun1+17, "")</f>
-        <v>43537</v>
+        <v>43908</v>
       </c>
       <c r="G28" s="6">
         <f>IF(AND(YEAR(MarSun1+18)=$A$3,MONTH(MarSun1+18)=3),MarSun1+18, "")</f>
-        <v>43538</v>
+        <v>43909</v>
       </c>
       <c r="H28" s="7">
         <f>IF(AND(YEAR(MarSun1+19)=$A$3,MONTH(MarSun1+19)=3),MarSun1+19, "")</f>
-        <v>43539</v>
+        <v>43910</v>
       </c>
       <c r="I28" s="6">
         <f>IF(AND(YEAR(MarSun1+20)=$A$3,MONTH(MarSun1+20)=3),MarSun1+20, "")</f>
-        <v>43540</v>
+        <v>43911</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="6">
         <f>IF(AND(YEAR(JunSun1+14)=$A$3,MONTH(JunSun1+14)=6),JunSun1+14, "")</f>
-        <v>43625</v>
+        <v>43996</v>
       </c>
       <c r="L28" s="6">
         <f>IF(AND(YEAR(JunSun1+15)=$A$3,MONTH(JunSun1+15)=6),JunSun1+15, "")</f>
-        <v>43626</v>
+        <v>43997</v>
       </c>
       <c r="M28" s="6">
         <f>IF(AND(YEAR(JunSun1+16)=$A$3,MONTH(JunSun1+16)=6),JunSun1+16, "")</f>
-        <v>43627</v>
+        <v>43998</v>
       </c>
       <c r="N28" s="6">
         <f>IF(AND(YEAR(JunSun1+17)=$A$3,MONTH(JunSun1+17)=6),JunSun1+17, "")</f>
-        <v>43628</v>
+        <v>43999</v>
       </c>
       <c r="O28" s="6">
         <f>IF(AND(YEAR(JunSun1+18)=$A$3,MONTH(JunSun1+18)=6),JunSun1+18, "")</f>
-        <v>43629</v>
+        <v>44000</v>
       </c>
       <c r="P28" s="7">
         <f>IF(AND(YEAR(JunSun1+19)=$A$3,MONTH(JunSun1+19)=6),JunSun1+19, "")</f>
-        <v>43630</v>
+        <v>44001</v>
       </c>
       <c r="Q28" s="6">
         <f>IF(AND(YEAR(JunSun1+20)=$A$3,MONTH(JunSun1+20)=6),JunSun1+20, "")</f>
-        <v>43631</v>
+        <v>44002</v>
       </c>
       <c r="R28" s="5"/>
       <c r="S28" s="6">
         <f>IF(AND(YEAR(SepSun1+14)=$A$3,MONTH(SepSun1+14)=9),SepSun1+14, "")</f>
-        <v>43723</v>
+        <v>44087</v>
       </c>
       <c r="T28" s="6">
         <f>IF(AND(YEAR(SepSun1+15)=$A$3,MONTH(SepSun1+15)=9),SepSun1+15, "")</f>
-        <v>43724</v>
+        <v>44088</v>
       </c>
       <c r="U28" s="6">
         <f>IF(AND(YEAR(SepSun1+16)=$A$3,MONTH(SepSun1+16)=9),SepSun1+16, "")</f>
-        <v>43725</v>
+        <v>44089</v>
       </c>
       <c r="V28" s="6">
         <f>IF(AND(YEAR(SepSun1+17)=$A$3,MONTH(SepSun1+17)=9),SepSun1+17, "")</f>
-        <v>43726</v>
+        <v>44090</v>
       </c>
       <c r="W28" s="6">
         <f>IF(AND(YEAR(SepSun1+18)=$A$3,MONTH(SepSun1+18)=9),SepSun1+18, "")</f>
-        <v>43727</v>
+        <v>44091</v>
       </c>
       <c r="X28" s="7">
         <f>IF(AND(YEAR(SepSun1+19)=$A$3,MONTH(SepSun1+19)=9),SepSun1+19, "")</f>
-        <v>43728</v>
+        <v>44092</v>
       </c>
       <c r="Y28" s="6">
         <f>IF(AND(YEAR(SepSun1+20)=$A$3,MONTH(SepSun1+20)=9),SepSun1+20, "")</f>
-        <v>43729</v>
+        <v>44093</v>
       </c>
       <c r="Z28" s="5"/>
       <c r="AA28" s="6">
         <f>IF(AND(YEAR(DecSun1+14)=$A$3,MONTH(DecSun1+14)=12),DecSun1+14, "")</f>
-        <v>43814</v>
+        <v>44178</v>
       </c>
       <c r="AB28" s="6">
         <f>IF(AND(YEAR(DecSun1+15)=$A$3,MONTH(DecSun1+15)=12),DecSun1+15, "")</f>
-        <v>43815</v>
+        <v>44179</v>
       </c>
       <c r="AC28" s="6">
         <f>IF(AND(YEAR(DecSun1+16)=$A$3,MONTH(DecSun1+16)=12),DecSun1+16, "")</f>
-        <v>43816</v>
+        <v>44180</v>
       </c>
       <c r="AD28" s="6">
         <f>IF(AND(YEAR(DecSun1+17)=$A$3,MONTH(DecSun1+17)=12),DecSun1+17, "")</f>
-        <v>43817</v>
+        <v>44181</v>
       </c>
       <c r="AE28" s="6">
         <f>IF(AND(YEAR(DecSun1+18)=$A$3,MONTH(DecSun1+18)=12),DecSun1+18, "")</f>
-        <v>43818</v>
+        <v>44182</v>
       </c>
       <c r="AF28" s="7">
         <f>IF(AND(YEAR(DecSun1+19)=$A$3,MONTH(DecSun1+19)=12),DecSun1+19, "")</f>
-        <v>43819</v>
+        <v>44183</v>
       </c>
       <c r="AG28" s="6">
         <f>IF(AND(YEAR(DecSun1+20)=$A$3,MONTH(DecSun1+20)=12),DecSun1+20, "")</f>
-        <v>43820</v>
+        <v>44184</v>
       </c>
       <c r="AI28" s="61" t="s">
         <v>75</v>
@@ -4582,118 +4582,118 @@
       <c r="B29" s="5"/>
       <c r="C29" s="6">
         <f>IF(AND(YEAR(MarSun1+21)=$A$3,MONTH(MarSun1+21)=3),MarSun1+21, "")</f>
-        <v>43541</v>
+        <v>43912</v>
       </c>
       <c r="D29" s="6">
         <f>IF(AND(YEAR(MarSun1+22)=$A$3,MONTH(MarSun1+22)=3),MarSun1+22, "")</f>
-        <v>43542</v>
+        <v>43913</v>
       </c>
       <c r="E29" s="6">
         <f>IF(AND(YEAR(MarSun1+23)=$A$3,MONTH(MarSun1+23)=3),MarSun1+23, "")</f>
-        <v>43543</v>
+        <v>43914</v>
       </c>
       <c r="F29" s="6">
         <f>IF(AND(YEAR(MarSun1+24)=$A$3,MONTH(MarSun1+24)=3),MarSun1+24, "")</f>
-        <v>43544</v>
+        <v>43915</v>
       </c>
       <c r="G29" s="6">
         <f>IF(AND(YEAR(MarSun1+25)=$A$3,MONTH(MarSun1+25)=3),MarSun1+25, "")</f>
-        <v>43545</v>
+        <v>43916</v>
       </c>
       <c r="H29" s="7">
         <f>IF(AND(YEAR(MarSun1+26)=$A$3,MONTH(MarSun1+26)=3),MarSun1+26, "")</f>
-        <v>43546</v>
+        <v>43917</v>
       </c>
       <c r="I29" s="6">
         <f>IF(AND(YEAR(MarSun1+27)=$A$3,MONTH(MarSun1+27)=3),MarSun1+27, "")</f>
-        <v>43547</v>
+        <v>43918</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="6">
         <f>IF(AND(YEAR(JunSun1+21)=$A$3,MONTH(JunSun1+21)=6),JunSun1+21, "")</f>
-        <v>43632</v>
+        <v>44003</v>
       </c>
       <c r="L29" s="6">
         <f>IF(AND(YEAR(JunSun1+22)=$A$3,MONTH(JunSun1+22)=6),JunSun1+22, "")</f>
-        <v>43633</v>
+        <v>44004</v>
       </c>
       <c r="M29" s="6">
         <f>IF(AND(YEAR(JunSun1+23)=$A$3,MONTH(JunSun1+23)=6),JunSun1+23, "")</f>
-        <v>43634</v>
+        <v>44005</v>
       </c>
       <c r="N29" s="6">
         <f>IF(AND(YEAR(JunSun1+24)=$A$3,MONTH(JunSun1+24)=6),JunSun1+24, "")</f>
-        <v>43635</v>
+        <v>44006</v>
       </c>
       <c r="O29" s="6">
         <f>IF(AND(YEAR(JunSun1+25)=$A$3,MONTH(JunSun1+25)=6),JunSun1+25, "")</f>
-        <v>43636</v>
+        <v>44007</v>
       </c>
       <c r="P29" s="7">
         <f>IF(AND(YEAR(JunSun1+26)=$A$3,MONTH(JunSun1+26)=6),JunSun1+26, "")</f>
-        <v>43637</v>
+        <v>44008</v>
       </c>
       <c r="Q29" s="6">
         <f>IF(AND(YEAR(JunSun1+27)=$A$3,MONTH(JunSun1+27)=6),JunSun1+27, "")</f>
-        <v>43638</v>
+        <v>44009</v>
       </c>
       <c r="R29" s="5"/>
       <c r="S29" s="6">
         <f>IF(AND(YEAR(SepSun1+21)=$A$3,MONTH(SepSun1+21)=9),SepSun1+21, "")</f>
-        <v>43730</v>
+        <v>44094</v>
       </c>
       <c r="T29" s="6">
         <f>IF(AND(YEAR(SepSun1+22)=$A$3,MONTH(SepSun1+22)=9),SepSun1+22, "")</f>
-        <v>43731</v>
+        <v>44095</v>
       </c>
       <c r="U29" s="6">
         <f>IF(AND(YEAR(SepSun1+23)=$A$3,MONTH(SepSun1+23)=9),SepSun1+23, "")</f>
-        <v>43732</v>
+        <v>44096</v>
       </c>
       <c r="V29" s="6">
         <f>IF(AND(YEAR(SepSun1+24)=$A$3,MONTH(SepSun1+24)=9),SepSun1+24, "")</f>
-        <v>43733</v>
+        <v>44097</v>
       </c>
       <c r="W29" s="6">
         <f>IF(AND(YEAR(SepSun1+25)=$A$3,MONTH(SepSun1+25)=9),SepSun1+25, "")</f>
-        <v>43734</v>
+        <v>44098</v>
       </c>
       <c r="X29" s="7">
         <f>IF(AND(YEAR(SepSun1+26)=$A$3,MONTH(SepSun1+26)=9),SepSun1+26, "")</f>
-        <v>43735</v>
+        <v>44099</v>
       </c>
       <c r="Y29" s="6">
         <f>IF(AND(YEAR(SepSun1+27)=$A$3,MONTH(SepSun1+27)=9),SepSun1+27, "")</f>
-        <v>43736</v>
+        <v>44100</v>
       </c>
       <c r="Z29" s="5"/>
       <c r="AA29" s="6">
         <f>IF(AND(YEAR(DecSun1+21)=$A$3,MONTH(DecSun1+21)=12),DecSun1+21, "")</f>
-        <v>43821</v>
+        <v>44185</v>
       </c>
       <c r="AB29" s="6">
         <f>IF(AND(YEAR(DecSun1+22)=$A$3,MONTH(DecSun1+22)=12),DecSun1+22, "")</f>
-        <v>43822</v>
+        <v>44186</v>
       </c>
       <c r="AC29" s="6">
         <f>IF(AND(YEAR(DecSun1+23)=$A$3,MONTH(DecSun1+23)=12),DecSun1+23, "")</f>
-        <v>43823</v>
+        <v>44187</v>
       </c>
       <c r="AD29" s="6">
         <f>IF(AND(YEAR(DecSun1+24)=$A$3,MONTH(DecSun1+24)=12),DecSun1+24, "")</f>
-        <v>43824</v>
+        <v>44188</v>
       </c>
       <c r="AE29" s="6">
         <f>IF(AND(YEAR(DecSun1+25)=$A$3,MONTH(DecSun1+25)=12),DecSun1+25, "")</f>
-        <v>43825</v>
+        <v>44189</v>
       </c>
       <c r="AF29" s="7">
         <f>IF(AND(YEAR(DecSun1+26)=$A$3,MONTH(DecSun1+26)=12),DecSun1+26, "")</f>
-        <v>43826</v>
+        <v>44190</v>
       </c>
       <c r="AG29" s="6">
         <f>IF(AND(YEAR(DecSun1+27)=$A$3,MONTH(DecSun1+27)=12),DecSun1+27, "")</f>
-        <v>43827</v>
+        <v>44191</v>
       </c>
       <c r="AI29"/>
       <c r="AJ29"/>
@@ -4707,77 +4707,77 @@
       <c r="B30" s="5"/>
       <c r="C30" s="6">
         <f>IF(AND(YEAR(MarSun1+28)=$A$3,MONTH(MarSun1+28)=3),MarSun1+28, "")</f>
-        <v>43548</v>
+        <v>43919</v>
       </c>
       <c r="D30" s="6">
         <f>IF(AND(YEAR(MarSun1+29)=$A$3,MONTH(MarSun1+29)=3),MarSun1+29, "")</f>
-        <v>43549</v>
+        <v>43920</v>
       </c>
       <c r="E30" s="6">
         <f>IF(AND(YEAR(MarSun1+30)=$A$3,MONTH(MarSun1+30)=3),MarSun1+30, "")</f>
-        <v>43550</v>
-      </c>
-      <c r="F30" s="6">
+        <v>43921</v>
+      </c>
+      <c r="F30" s="6" t="str">
         <f>IF(AND(YEAR(MarSun1+31)=$A$3,MONTH(MarSun1+31)=3),MarSun1+31, "")</f>
-        <v>43551</v>
-      </c>
-      <c r="G30" s="6">
+        <v/>
+      </c>
+      <c r="G30" s="6" t="str">
         <f>IF(AND(YEAR(MarSun1+32)=$A$3,MONTH(MarSun1+32)=3),MarSun1+32, "")</f>
-        <v>43552</v>
-      </c>
-      <c r="H30" s="7">
+        <v/>
+      </c>
+      <c r="H30" s="7" t="str">
         <f>IF(AND(YEAR(MarSun1+33)=$A$3,MONTH(MarSun1+33)=3),MarSun1+33, "")</f>
-        <v>43553</v>
-      </c>
-      <c r="I30" s="6">
+        <v/>
+      </c>
+      <c r="I30" s="6" t="str">
         <f>IF(AND(YEAR(MarSun1+34)=$A$3,MONTH(MarSun1+34)=3),MarSun1+34, "")</f>
-        <v>43554</v>
+        <v/>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="6">
         <f>IF(AND(YEAR(JunSun1+28)=$A$3,MONTH(JunSun1+28)=6),JunSun1+28, "")</f>
-        <v>43639</v>
+        <v>44010</v>
       </c>
       <c r="L30" s="6">
         <f>IF(AND(YEAR(JunSun1+29)=$A$3,MONTH(JunSun1+29)=6),JunSun1+29, "")</f>
-        <v>43640</v>
+        <v>44011</v>
       </c>
       <c r="M30" s="6">
         <f>IF(AND(YEAR(JunSun1+30)=$A$3,MONTH(JunSun1+30)=6),JunSun1+30, "")</f>
-        <v>43641</v>
-      </c>
-      <c r="N30" s="6">
+        <v>44012</v>
+      </c>
+      <c r="N30" s="6" t="str">
         <f>IF(AND(YEAR(JunSun1+31)=$A$3,MONTH(JunSun1+31)=6),JunSun1+31, "")</f>
-        <v>43642</v>
-      </c>
-      <c r="O30" s="6">
+        <v/>
+      </c>
+      <c r="O30" s="6" t="str">
         <f>IF(AND(YEAR(JunSun1+32)=$A$3,MONTH(JunSun1+32)=6),JunSun1+32, "")</f>
-        <v>43643</v>
-      </c>
-      <c r="P30" s="7">
+        <v/>
+      </c>
+      <c r="P30" s="7" t="str">
         <f>IF(AND(YEAR(JunSun1+33)=$A$3,MONTH(JunSun1+33)=6),JunSun1+33, "")</f>
-        <v>43644</v>
-      </c>
-      <c r="Q30" s="6">
+        <v/>
+      </c>
+      <c r="Q30" s="6" t="str">
         <f>IF(AND(YEAR(JunSun1+34)=$A$3,MONTH(JunSun1+34)=6),JunSun1+34, "")</f>
-        <v>43645</v>
+        <v/>
       </c>
       <c r="R30" s="5"/>
       <c r="S30" s="6">
         <f>IF(AND(YEAR(SepSun1+28)=$A$3,MONTH(SepSun1+28)=9),SepSun1+28, "")</f>
-        <v>43737</v>
+        <v>44101</v>
       </c>
       <c r="T30" s="6">
         <f>IF(AND(YEAR(SepSun1+29)=$A$3,MONTH(SepSun1+29)=9),SepSun1+29, "")</f>
-        <v>43738</v>
-      </c>
-      <c r="U30" s="6" t="str">
+        <v>44102</v>
+      </c>
+      <c r="U30" s="6">
         <f>IF(AND(YEAR(SepSun1+30)=$A$3,MONTH(SepSun1+30)=9),SepSun1+30, "")</f>
-        <v/>
-      </c>
-      <c r="V30" s="6" t="str">
+        <v>44103</v>
+      </c>
+      <c r="V30" s="6">
         <f>IF(AND(YEAR(SepSun1+31)=$A$3,MONTH(SepSun1+31)=9),SepSun1+31, "")</f>
-        <v/>
+        <v>44104</v>
       </c>
       <c r="W30" s="6" t="str">
         <f>IF(AND(YEAR(SepSun1+32)=$A$3,MONTH(SepSun1+32)=9),SepSun1+32, "")</f>
@@ -4794,23 +4794,23 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="6">
         <f>IF(AND(YEAR(DecSun1+28)=$A$3,MONTH(DecSun1+28)=12),DecSun1+28, "")</f>
-        <v>43828</v>
+        <v>44192</v>
       </c>
       <c r="AB30" s="6">
         <f>IF(AND(YEAR(DecSun1+29)=$A$3,MONTH(DecSun1+29)=12),DecSun1+29, "")</f>
-        <v>43829</v>
+        <v>44193</v>
       </c>
       <c r="AC30" s="6">
         <f>IF(AND(YEAR(DecSun1+30)=$A$3,MONTH(DecSun1+30)=12),DecSun1+30, "")</f>
-        <v>43830</v>
-      </c>
-      <c r="AD30" s="6" t="str">
+        <v>44194</v>
+      </c>
+      <c r="AD30" s="6">
         <f>IF(AND(YEAR(DecSun1+31)=$A$3,MONTH(DecSun1+31)=12),DecSun1+31, "")</f>
-        <v/>
-      </c>
-      <c r="AE30" s="6" t="str">
+        <v>44195</v>
+      </c>
+      <c r="AE30" s="6">
         <f>IF(AND(YEAR(DecSun1+32)=$A$3,MONTH(DecSun1+32)=12),DecSun1+32, "")</f>
-        <v/>
+        <v>44196</v>
       </c>
       <c r="AF30" s="7" t="str">
         <f>IF(AND(YEAR(DecSun1+33)=$A$3,MONTH(DecSun1+33)=12),DecSun1+33, "")</f>
@@ -4830,9 +4830,9 @@
     </row>
     <row r="31" spans="2:41" ht="18.75" customHeight="1">
       <c r="B31" s="5"/>
-      <c r="C31" s="6">
+      <c r="C31" s="6" t="str">
         <f>IF(AND(YEAR(MarSun1+35)=$A$3,MONTH(MarSun1+35)=3),MarSun1+35, "")</f>
-        <v>43555</v>
+        <v/>
       </c>
       <c r="D31" s="6" t="str">
         <f>IF(AND(YEAR(MarSun1+36)=$A$3,MONTH(MarSun1+36)=3),MarSun1+36, "")</f>
@@ -4859,9 +4859,9 @@
         <v/>
       </c>
       <c r="J31" s="5"/>
-      <c r="K31" s="6">
+      <c r="K31" s="6" t="str">
         <f>IF(AND(YEAR(JunSun1+35)=$A$3,MONTH(JunSun1+35)=6),JunSun1+35, "")</f>
-        <v>43646</v>
+        <v/>
       </c>
       <c r="L31" s="6" t="str">
         <f>IF(AND(YEAR(JunSun1+36)=$A$3,MONTH(JunSun1+36)=6),JunSun1+36, "")</f>
@@ -4968,36 +4968,36 @@
       <c r="L32" s="27"/>
       <c r="M32" s="33">
         <f>AK11</f>
-        <v>43632</v>
+        <v>44003</v>
       </c>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
       <c r="Q32" s="11"/>
-      <c r="S32" s="73" t="s">
+      <c r="S32" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="T32" s="74"/>
+      <c r="T32" s="63"/>
       <c r="U32" s="19">
         <f>AK13</f>
-        <v>43710</v>
+        <v>44081</v>
       </c>
       <c r="V32" s="30"/>
       <c r="W32" s="10"/>
       <c r="X32" s="10"/>
       <c r="Y32" s="11"/>
-      <c r="AA32" s="71" t="s">
+      <c r="AA32" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="AB32" s="72"/>
-      <c r="AC32" s="72"/>
-      <c r="AD32" s="72"/>
-      <c r="AE32" s="69" t="str">
+      <c r="AB32" s="65"/>
+      <c r="AC32" s="65"/>
+      <c r="AD32" s="65"/>
+      <c r="AE32" s="66" t="str">
         <f>CONCATENATE(TEXT(AK18,"MM/DD")," ","&amp;"," ",TEXT(AK19,"MM/DD"))</f>
         <v>12/24 &amp; 12/25</v>
       </c>
-      <c r="AF32" s="69"/>
-      <c r="AG32" s="70"/>
+      <c r="AF32" s="66"/>
+      <c r="AG32" s="67"/>
       <c r="AN32" s="58">
         <f t="shared" si="1"/>
         <v>43847</v>
@@ -11557,13 +11557,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="AA32:AD32"/>
-    <mergeCell ref="AE32:AG32"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="S24:Y24"/>
-    <mergeCell ref="AA24:AG24"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="S4:Y4"/>
+    <mergeCell ref="AA4:AG4"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
     <mergeCell ref="AD12:AE12"/>
     <mergeCell ref="AD22:AE22"/>
     <mergeCell ref="C14:I14"/>
@@ -11572,13 +11572,13 @@
     <mergeCell ref="AA14:AG14"/>
     <mergeCell ref="AF22:AG22"/>
     <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="S4:Y4"/>
-    <mergeCell ref="AA4:AG4"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="AA32:AD32"/>
+    <mergeCell ref="AE32:AG32"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="S24:Y24"/>
+    <mergeCell ref="AA24:AG24"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="G32:AG32 C4:AG31">
@@ -11606,7 +11606,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.51181102362204722" bottom="0.23622047244094491" header="0" footer="0.51181102362204722"/>
-  <pageSetup paperSize="17" scale="61" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="53" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Arial,Bold"&amp;24 2016 Calendar</oddHeader>
   </headerFooter>
